--- a/thyroids_values_2.xlsx
+++ b/thyroids_values_2.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandro/dog_thyroids/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8292E3-86D9-F949-ABB7-DD54AE1A209D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="460" windowWidth="19160" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="100" windowWidth="21340" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full2" sheetId="2" r:id="rId2"/>
+    <sheet name="Full3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5112,9 +5108,6 @@
     <t>110+-14</t>
   </si>
   <si>
-    <t>12+-9</t>
-  </si>
-  <si>
     <t>115+-8</t>
   </si>
   <si>
@@ -5311,16 +5304,42 @@
   </si>
   <si>
     <t>64)70458</t>
+  </si>
+  <si>
+    <t>120+-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5379,10 +5398,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5392,20 +5529,134 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="119">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -5693,16 +5944,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D20" sqref="A6:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -5716,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5739,7 +5990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="E3" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +6004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -5767,7 +6018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -5781,7 +6032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="E6" t="s">
         <v>22</v>
       </c>
@@ -5795,7 +6046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -5809,7 +6060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -5823,7 +6074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>34</v>
       </c>
@@ -5837,7 +6088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>37</v>
       </c>
@@ -5851,7 +6102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>41</v>
       </c>
@@ -5865,7 +6116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="E12" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +6130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="E13" t="s">
         <v>49</v>
       </c>
@@ -5893,7 +6144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>53</v>
       </c>
@@ -5907,7 +6158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>57</v>
       </c>
@@ -5921,7 +6172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>61</v>
       </c>
@@ -5935,7 +6186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:8">
       <c r="E17" t="s">
         <v>64</v>
       </c>
@@ -5949,7 +6200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:8">
       <c r="E18" t="s">
         <v>66</v>
       </c>
@@ -5963,7 +6214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:8">
       <c r="E19" t="s">
         <v>69</v>
       </c>
@@ -5977,7 +6228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>73</v>
       </c>
@@ -5991,7 +6242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:8">
       <c r="E21" t="s">
         <v>76</v>
       </c>
@@ -6005,7 +6256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:8">
       <c r="E22" t="s">
         <v>76</v>
       </c>
@@ -6019,7 +6270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:8">
       <c r="E23" t="s">
         <v>82</v>
       </c>
@@ -6033,7 +6284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:8">
       <c r="E24" t="s">
         <v>30</v>
       </c>
@@ -6047,7 +6298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:8">
       <c r="E25" t="s">
         <v>89</v>
       </c>
@@ -6061,7 +6312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:8">
       <c r="E26" t="s">
         <v>93</v>
       </c>
@@ -6075,7 +6326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:8">
       <c r="E27" t="s">
         <v>96</v>
       </c>
@@ -6089,7 +6340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:8">
       <c r="E28" t="s">
         <v>100</v>
       </c>
@@ -6103,7 +6354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:8">
       <c r="E29" t="s">
         <v>103</v>
       </c>
@@ -6117,7 +6368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:8">
       <c r="E30" t="s">
         <v>107</v>
       </c>
@@ -6131,7 +6382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:8">
       <c r="E31" t="s">
         <v>111</v>
       </c>
@@ -6145,7 +6396,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6154,8 +6405,9 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6164,8 +6416,9 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6174,8 +6427,9 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6184,8 +6438,9 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6194,8 +6449,9 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6204,8 +6460,9 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6214,8 +6471,9 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6224,8 +6482,9 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6234,8 +6493,9 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6244,8 +6504,9 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6254,8 +6515,9 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6264,8 +6526,9 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6274,8 +6537,9 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6284,8 +6548,9 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6294,8 +6559,9 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>1427</v>
       </c>
@@ -6318,7 +6584,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="E71" t="s">
         <v>172</v>
       </c>
@@ -6332,7 +6598,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="E72" t="s">
         <v>176</v>
       </c>
@@ -6346,7 +6612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="E73" t="s">
         <v>180</v>
       </c>
@@ -6360,7 +6626,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="E74" t="s">
         <v>184</v>
       </c>
@@ -6374,7 +6640,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="E75" t="s">
         <v>188</v>
       </c>
@@ -6388,7 +6654,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="E76" t="s">
         <v>192</v>
       </c>
@@ -6402,7 +6668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="E77" t="s">
         <v>176</v>
       </c>
@@ -6416,7 +6682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="E78" t="s">
         <v>196</v>
       </c>
@@ -6430,7 +6696,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="E79" t="s">
         <v>200</v>
       </c>
@@ -6444,7 +6710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="E80" t="s">
         <v>202</v>
       </c>
@@ -6458,7 +6724,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="E81" t="s">
         <v>206</v>
       </c>
@@ -6472,7 +6738,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="E82" t="s">
         <v>169</v>
       </c>
@@ -6486,7 +6752,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="F83" t="s">
         <v>209</v>
       </c>
@@ -6494,7 +6760,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="F84" t="s">
         <v>209</v>
       </c>
@@ -6502,7 +6768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="F85" t="s">
         <v>211</v>
       </c>
@@ -6510,12 +6776,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="H86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>1428</v>
       </c>
@@ -6538,7 +6804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>217</v>
       </c>
@@ -6555,7 +6821,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="E90" t="s">
         <v>221</v>
       </c>
@@ -6569,7 +6835,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="E91" t="s">
         <v>218</v>
       </c>
@@ -6583,7 +6849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="E92" t="s">
         <v>226</v>
       </c>
@@ -6594,7 +6860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="E93" t="s">
         <v>229</v>
       </c>
@@ -6602,7 +6868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="E94" t="s">
         <v>230</v>
       </c>
@@ -6610,7 +6876,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="E95" t="s">
         <v>230</v>
       </c>
@@ -6618,7 +6884,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>1519</v>
       </c>
@@ -6641,7 +6907,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>238</v>
       </c>
@@ -6658,7 +6924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="E99" t="s">
         <v>242</v>
       </c>
@@ -6672,7 +6938,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="E100" t="s">
         <v>245</v>
       </c>
@@ -6686,7 +6952,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="E101" t="s">
         <v>248</v>
       </c>
@@ -6700,7 +6966,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="E102" t="s">
         <v>252</v>
       </c>
@@ -6714,7 +6980,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="E103" t="s">
         <v>256</v>
       </c>
@@ -6728,7 +6994,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="E104" t="s">
         <v>260</v>
       </c>
@@ -6742,7 +7008,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="E105" t="s">
         <v>264</v>
       </c>
@@ -6756,7 +7022,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="E106" t="s">
         <v>268</v>
       </c>
@@ -6770,7 +7036,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="E107" t="s">
         <v>272</v>
       </c>
@@ -6781,12 +7047,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="E108" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>1520</v>
       </c>
@@ -6809,7 +7075,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>280</v>
       </c>
@@ -6826,7 +7092,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="E112" t="s">
         <v>285</v>
       </c>
@@ -6840,7 +7106,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="E113" t="s">
         <v>289</v>
       </c>
@@ -6854,7 +7120,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="E114" t="s">
         <v>229</v>
       </c>
@@ -6868,7 +7134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="E115" t="s">
         <v>295</v>
       </c>
@@ -6882,7 +7148,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="E116" t="s">
         <v>299</v>
       </c>
@@ -6896,7 +7162,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="E117" t="s">
         <v>303</v>
       </c>
@@ -6910,7 +7176,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="E118" t="s">
         <v>307</v>
       </c>
@@ -6924,7 +7190,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="F119" t="s">
         <v>311</v>
       </c>
@@ -6932,7 +7198,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6941,7 +7207,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6950,7 +7216,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6959,7 +7225,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6968,7 +7234,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6977,7 +7243,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6986,7 +7252,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6995,7 +7261,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7004,7 +7270,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7013,7 +7279,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7022,7 +7288,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7031,7 +7297,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7040,7 +7306,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7049,7 +7315,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7058,7 +7324,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7067,7 +7333,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7076,7 +7342,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7085,7 +7351,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7094,7 +7360,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7103,7 +7369,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7112,7 +7378,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7121,7 +7387,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7130,7 +7396,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7139,7 +7405,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7148,7 +7414,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7157,7 +7423,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7166,7 +7432,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7175,7 +7441,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7184,7 +7450,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7193,7 +7459,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7202,7 +7468,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7211,7 +7477,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7220,7 +7486,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7229,7 +7495,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7238,7 +7504,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7247,7 +7513,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7256,7 +7522,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7265,7 +7531,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7274,7 +7540,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7283,7 +7549,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7292,7 +7558,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7301,7 +7567,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>1521</v>
       </c>
@@ -7324,7 +7590,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="E163" t="s">
         <v>357</v>
       </c>
@@ -7338,7 +7604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="E164" t="s">
         <v>360</v>
       </c>
@@ -7352,7 +7618,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="E165" t="s">
         <v>364</v>
       </c>
@@ -7366,7 +7632,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="E166" t="s">
         <v>143</v>
       </c>
@@ -7380,7 +7646,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="E167" t="s">
         <v>193</v>
       </c>
@@ -7394,7 +7660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="E168" t="s">
         <v>256</v>
       </c>
@@ -7408,7 +7674,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="E169" t="s">
         <v>373</v>
       </c>
@@ -7422,7 +7688,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="E170" t="s">
         <v>377</v>
       </c>
@@ -7436,7 +7702,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="E171" t="s">
         <v>184</v>
       </c>
@@ -7450,7 +7716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="E172" t="s">
         <v>382</v>
       </c>
@@ -7464,7 +7730,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="E173" t="s">
         <v>386</v>
       </c>
@@ -7478,7 +7744,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="E174" t="s">
         <v>389</v>
       </c>
@@ -7489,47 +7755,47 @@
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="G175" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="G176" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="G177" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="G178" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="G179" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="G180" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="G181" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="G182" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>1522</v>
       </c>
@@ -7552,7 +7818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="E185" t="s">
         <v>252</v>
       </c>
@@ -7566,7 +7832,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="E186" t="s">
         <v>405</v>
       </c>
@@ -7580,7 +7846,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="E187" t="s">
         <v>116</v>
       </c>
@@ -7594,7 +7860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="E188" t="s">
         <v>315</v>
       </c>
@@ -7608,7 +7874,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="F189" t="s">
         <v>408</v>
       </c>
@@ -7619,7 +7885,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="F190" t="s">
         <v>413</v>
       </c>
@@ -7627,7 +7893,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="F191" t="s">
         <v>221</v>
       </c>
@@ -7635,7 +7901,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="F192" t="s">
         <v>416</v>
       </c>
@@ -7643,7 +7909,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12">
       <c r="F193" t="s">
         <v>418</v>
       </c>
@@ -7651,7 +7917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12">
       <c r="F194" t="s">
         <v>364</v>
       </c>
@@ -7659,7 +7925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12">
       <c r="F195" t="s">
         <v>419</v>
       </c>
@@ -7667,7 +7933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12">
       <c r="F196" t="s">
         <v>420</v>
       </c>
@@ -7675,12 +7941,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12">
       <c r="F197" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>1523</v>
       </c>
@@ -7703,7 +7969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12">
       <c r="E200" t="s">
         <v>426</v>
       </c>
@@ -7717,7 +7983,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12">
       <c r="E201" t="s">
         <v>428</v>
       </c>
@@ -7731,7 +7997,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12">
       <c r="E202" t="s">
         <v>430</v>
       </c>
@@ -7745,7 +8011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12">
       <c r="E203" t="s">
         <v>433</v>
       </c>
@@ -7759,7 +8025,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12">
       <c r="E204" t="s">
         <v>295</v>
       </c>
@@ -7773,7 +8039,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12">
       <c r="E205" t="s">
         <v>440</v>
       </c>
@@ -7787,7 +8053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12">
       <c r="E206" t="s">
         <v>442</v>
       </c>
@@ -7801,7 +8067,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>1524</v>
       </c>
@@ -7823,8 +8089,9 @@
       <c r="H208" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L208" s="9"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="E209" t="s">
         <v>450</v>
       </c>
@@ -7838,7 +8105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="E210" t="s">
         <v>453</v>
       </c>
@@ -7852,7 +8119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="E211" t="s">
         <v>456</v>
       </c>
@@ -7865,8 +8132,9 @@
       <c r="H211" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L211" s="9"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="E212" t="s">
         <v>459</v>
       </c>
@@ -7880,7 +8148,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="E213" t="s">
         <v>304</v>
       </c>
@@ -7894,7 +8162,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="E214" t="s">
         <v>466</v>
       </c>
@@ -7908,7 +8176,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="E215" t="s">
         <v>470</v>
       </c>
@@ -7922,7 +8190,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="F216" t="s">
         <v>473</v>
       </c>
@@ -7930,7 +8198,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="F217" t="s">
         <v>475</v>
       </c>
@@ -7938,7 +8206,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="F218" t="s">
         <v>477</v>
       </c>
@@ -7946,7 +8214,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="F219" t="s">
         <v>479</v>
       </c>
@@ -7954,12 +8222,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="F220" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>1525</v>
       </c>
@@ -7976,7 +8244,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="E223" t="s">
         <v>479</v>
       </c>
@@ -7984,7 +8252,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="E224" t="s">
         <v>486</v>
       </c>
@@ -7992,7 +8260,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:6">
       <c r="E225" t="s">
         <v>488</v>
       </c>
@@ -8000,7 +8268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:6">
       <c r="E226" t="s">
         <v>488</v>
       </c>
@@ -8008,7 +8276,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:6">
       <c r="E227" t="s">
         <v>326</v>
       </c>
@@ -8016,7 +8284,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:6">
       <c r="E228" t="s">
         <v>336</v>
       </c>
@@ -8024,7 +8292,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:6">
       <c r="E229" t="s">
         <v>491</v>
       </c>
@@ -8032,7 +8300,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:6">
       <c r="E230" t="s">
         <v>152</v>
       </c>
@@ -8040,7 +8308,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:6">
       <c r="E231" t="s">
         <v>492</v>
       </c>
@@ -8048,7 +8316,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:6">
       <c r="E232" t="s">
         <v>493</v>
       </c>
@@ -8056,7 +8324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:6">
       <c r="E233" t="s">
         <v>494</v>
       </c>
@@ -8064,7 +8332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:6">
       <c r="E234" t="s">
         <v>495</v>
       </c>
@@ -8072,7 +8340,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:6">
       <c r="E235" t="s">
         <v>497</v>
       </c>
@@ -8080,7 +8348,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:6">
       <c r="E236" t="s">
         <v>498</v>
       </c>
@@ -8088,7 +8356,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:6">
       <c r="E237" t="s">
         <v>500</v>
       </c>
@@ -8096,7 +8364,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:6">
       <c r="E238" t="s">
         <v>154</v>
       </c>
@@ -8104,7 +8372,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:6">
       <c r="E239" t="s">
         <v>503</v>
       </c>
@@ -8112,7 +8380,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:6">
       <c r="E240" t="s">
         <v>505</v>
       </c>
@@ -8120,22 +8388,22 @@
         <v>506</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="E241" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="E242" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="E243" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>1526</v>
       </c>
@@ -8152,7 +8420,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="E246" t="s">
         <v>508</v>
       </c>
@@ -8160,7 +8428,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="E247" t="s">
         <v>277</v>
       </c>
@@ -8168,7 +8436,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="E248" t="s">
         <v>511</v>
       </c>
@@ -8176,7 +8444,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="E249" t="s">
         <v>513</v>
       </c>
@@ -8184,7 +8452,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="E250" t="s">
         <v>420</v>
       </c>
@@ -8192,7 +8460,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="E251" t="s">
         <v>354</v>
       </c>
@@ -8200,7 +8468,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="E252" t="s">
         <v>517</v>
       </c>
@@ -8208,7 +8476,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="E253" t="s">
         <v>248</v>
       </c>
@@ -8216,7 +8484,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="E254" t="s">
         <v>401</v>
       </c>
@@ -8224,7 +8492,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="E255" t="s">
         <v>202</v>
       </c>
@@ -8232,7 +8500,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="E256" t="s">
         <v>413</v>
       </c>
@@ -8240,7 +8508,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>1527</v>
       </c>
@@ -8257,7 +8525,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="E259" t="s">
         <v>525</v>
       </c>
@@ -8265,7 +8533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="E260" t="s">
         <v>526</v>
       </c>
@@ -8273,7 +8541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="E261" t="s">
         <v>527</v>
       </c>
@@ -8281,7 +8549,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="E262" t="s">
         <v>345</v>
       </c>
@@ -8289,7 +8557,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="E263" t="s">
         <v>530</v>
       </c>
@@ -8297,7 +8565,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="E264" t="s">
         <v>532</v>
       </c>
@@ -8305,7 +8573,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="E265" t="s">
         <v>534</v>
       </c>
@@ -8313,7 +8581,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="E266" t="s">
         <v>347</v>
       </c>
@@ -8321,7 +8589,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="E267" t="s">
         <v>536</v>
       </c>
@@ -8329,52 +8597,52 @@
         <v>493</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="E268" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="E269" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="E270" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="E271" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="E272" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="E273" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="E274" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="E275" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="E276" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>1528</v>
       </c>
@@ -8397,7 +8665,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="E279" t="s">
         <v>547</v>
       </c>
@@ -8411,7 +8679,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="E280" t="s">
         <v>501</v>
       </c>
@@ -8425,7 +8693,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="E281" t="s">
         <v>554</v>
       </c>
@@ -8439,7 +8707,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="E282" t="s">
         <v>502</v>
       </c>
@@ -8453,7 +8721,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="E283" t="s">
         <v>558</v>
       </c>
@@ -8467,7 +8735,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="E284" t="s">
         <v>333</v>
       </c>
@@ -8481,7 +8749,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="E285" t="s">
         <v>565</v>
       </c>
@@ -8495,7 +8763,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="E286" t="s">
         <v>569</v>
       </c>
@@ -8509,7 +8777,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="E287" t="s">
         <v>573</v>
       </c>
@@ -8523,7 +8791,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="E288" t="s">
         <v>345</v>
       </c>
@@ -8537,7 +8805,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="E289" t="s">
         <v>579</v>
       </c>
@@ -8551,7 +8819,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="E290" t="s">
         <v>348</v>
       </c>
@@ -8565,7 +8833,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="E291" t="s">
         <v>584</v>
       </c>
@@ -8579,7 +8847,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="E292" t="s">
         <v>261</v>
       </c>
@@ -8593,7 +8861,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="E293" t="s">
         <v>498</v>
       </c>
@@ -8607,7 +8875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="E294" t="s">
         <v>485</v>
       </c>
@@ -8621,7 +8889,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="E295" t="s">
         <v>592</v>
       </c>
@@ -8629,22 +8897,22 @@
         <v>394</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="G296" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="G297" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="G298" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>1529</v>
       </c>
@@ -8667,7 +8935,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="E301" t="s">
         <v>598</v>
       </c>
@@ -8681,7 +8949,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="E302" t="s">
         <v>602</v>
       </c>
@@ -8695,7 +8963,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="E303" t="s">
         <v>245</v>
       </c>
@@ -8709,7 +8977,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="E304" t="s">
         <v>608</v>
       </c>
@@ -8723,7 +8991,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="E305" t="s">
         <v>611</v>
       </c>
@@ -8737,7 +9005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="E306" t="s">
         <v>614</v>
       </c>
@@ -8751,7 +9019,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="E307" t="s">
         <v>617</v>
       </c>
@@ -8765,7 +9033,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="E308" t="s">
         <v>333</v>
       </c>
@@ -8779,7 +9047,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="E309" t="s">
         <v>623</v>
       </c>
@@ -8793,7 +9061,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="F310" t="s">
         <v>627</v>
       </c>
@@ -8804,7 +9072,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="G311" t="s">
         <v>629</v>
       </c>
@@ -8812,7 +9080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>1530</v>
       </c>
@@ -8835,7 +9103,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314" s="1" t="s">
         <v>807</v>
       </c>
@@ -8852,7 +9120,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="E315" t="s">
         <v>638</v>
       </c>
@@ -8866,7 +9134,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="E316" t="s">
         <v>641</v>
       </c>
@@ -8880,7 +9148,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="E317" t="s">
         <v>229</v>
       </c>
@@ -8894,7 +9162,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="E318" t="s">
         <v>646</v>
       </c>
@@ -8908,7 +9176,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="E319" t="s">
         <v>649</v>
       </c>
@@ -8922,7 +9190,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="E320" t="s">
         <v>652</v>
       </c>
@@ -8936,7 +9204,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="E321" t="s">
         <v>364</v>
       </c>
@@ -8950,7 +9218,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="E322" t="s">
         <v>658</v>
       </c>
@@ -8964,7 +9232,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="E323" t="s">
         <v>662</v>
       </c>
@@ -8978,7 +9246,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="E324" t="s">
         <v>666</v>
       </c>
@@ -8992,7 +9260,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="E325" t="s">
         <v>669</v>
       </c>
@@ -9006,7 +9274,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="F326" t="s">
         <v>671</v>
       </c>
@@ -9017,7 +9285,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="F327" t="s">
         <v>315</v>
       </c>
@@ -9028,7 +9296,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="G328" t="s">
         <v>52</v>
       </c>
@@ -9036,7 +9304,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="G329" t="s">
         <v>675</v>
       </c>
@@ -9044,22 +9312,22 @@
         <v>676</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="H330" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="H331" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="H332" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>1531</v>
       </c>
@@ -9082,7 +9350,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="E335" t="s">
         <v>683</v>
       </c>
@@ -9096,7 +9364,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="E336" t="s">
         <v>687</v>
       </c>
@@ -9110,7 +9378,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="E337" t="s">
         <v>691</v>
       </c>
@@ -9124,7 +9392,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8">
       <c r="E338" t="s">
         <v>130</v>
       </c>
@@ -9138,7 +9406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8">
       <c r="E339" t="s">
         <v>697</v>
       </c>
@@ -9152,7 +9420,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8">
       <c r="E340" t="s">
         <v>157</v>
       </c>
@@ -9166,7 +9434,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8">
       <c r="E341" t="s">
         <v>323</v>
       </c>
@@ -9180,7 +9448,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="E342" t="s">
         <v>703</v>
       </c>
@@ -9194,7 +9462,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>1532</v>
       </c>
@@ -9217,7 +9485,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="E345" t="s">
         <v>708</v>
       </c>
@@ -9231,7 +9499,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8">
       <c r="E346" t="s">
         <v>711</v>
       </c>
@@ -9245,7 +9513,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8">
       <c r="E347" t="s">
         <v>715</v>
       </c>
@@ -9259,7 +9527,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8">
       <c r="E348" t="s">
         <v>716</v>
       </c>
@@ -9273,7 +9541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="E349" t="s">
         <v>130</v>
       </c>
@@ -9287,7 +9555,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="E350" t="s">
         <v>703</v>
       </c>
@@ -9301,7 +9569,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="F351" t="s">
         <v>724</v>
       </c>
@@ -9312,7 +9580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="F352" t="s">
         <v>725</v>
       </c>
@@ -9320,7 +9588,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="F353" t="s">
         <v>350</v>
       </c>
@@ -9328,7 +9596,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="F354" t="s">
         <v>334</v>
       </c>
@@ -9336,7 +9604,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="F355" t="s">
         <v>728</v>
       </c>
@@ -9344,7 +9612,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="F356" t="s">
         <v>163</v>
       </c>
@@ -9352,7 +9620,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="F357" t="s">
         <v>731</v>
       </c>
@@ -9360,7 +9628,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="F358" t="s">
         <v>733</v>
       </c>
@@ -9368,7 +9636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>1533</v>
       </c>
@@ -9391,7 +9659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="E361" t="s">
         <v>737</v>
       </c>
@@ -9405,7 +9673,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="E362" t="s">
         <v>741</v>
       </c>
@@ -9419,7 +9687,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="E363" t="s">
         <v>744</v>
       </c>
@@ -9433,7 +9701,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="E364" t="s">
         <v>746</v>
       </c>
@@ -9447,7 +9715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="E365" t="s">
         <v>749</v>
       </c>
@@ -9461,7 +9729,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="E366" t="s">
         <v>343</v>
       </c>
@@ -9475,7 +9743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="E367" t="s">
         <v>752</v>
       </c>
@@ -9489,7 +9757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="E368" t="s">
         <v>753</v>
       </c>
@@ -9503,7 +9771,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="E369" t="s">
         <v>754</v>
       </c>
@@ -9517,7 +9785,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="E370" t="s">
         <v>746</v>
       </c>
@@ -9531,7 +9799,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="E371" t="s">
         <v>683</v>
       </c>
@@ -9545,7 +9813,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="E372" t="s">
         <v>762</v>
       </c>
@@ -9559,7 +9827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="E373" t="s">
         <v>454</v>
       </c>
@@ -9573,7 +9841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="E374" t="s">
         <v>765</v>
       </c>
@@ -9587,7 +9855,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="E375" t="s">
         <v>767</v>
       </c>
@@ -9601,7 +9869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="E376" t="s">
         <v>770</v>
       </c>
@@ -9615,7 +9883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="E377" t="s">
         <v>489</v>
       </c>
@@ -9629,7 +9897,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="G378" t="s">
         <v>774</v>
       </c>
@@ -9637,7 +9905,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="G379" t="s">
         <v>775</v>
       </c>
@@ -9645,7 +9913,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="G380" t="s">
         <v>776</v>
       </c>
@@ -9653,7 +9921,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>1534</v>
       </c>
@@ -9670,7 +9938,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="E383" t="s">
         <v>338</v>
       </c>
@@ -9678,7 +9946,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="E384" t="s">
         <v>780</v>
       </c>
@@ -9686,7 +9954,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="385" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:6">
       <c r="E385" t="s">
         <v>782</v>
       </c>
@@ -9694,7 +9962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:6">
       <c r="E386" t="s">
         <v>321</v>
       </c>
@@ -9702,7 +9970,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:6">
       <c r="E387" t="s">
         <v>296</v>
       </c>
@@ -9710,7 +9978,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:6">
       <c r="E388" t="s">
         <v>321</v>
       </c>
@@ -9718,7 +9986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="389" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:6">
       <c r="E389" t="s">
         <v>115</v>
       </c>
@@ -9726,7 +9994,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:6">
       <c r="E390" t="s">
         <v>784</v>
       </c>
@@ -9734,7 +10002,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:6">
       <c r="E391" t="s">
         <v>782</v>
       </c>
@@ -9742,7 +10010,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:6">
       <c r="E392" t="s">
         <v>145</v>
       </c>
@@ -9750,77 +10018,77 @@
         <v>785</v>
       </c>
     </row>
-    <row r="393" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:6">
       <c r="E393" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:6">
       <c r="E394" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:6">
       <c r="E395" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:6">
       <c r="E396" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="397" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:6">
       <c r="E397" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:6">
       <c r="E398" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:6">
       <c r="E399" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:6">
       <c r="E400" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:5">
       <c r="E401" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:5">
       <c r="E402" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:5">
       <c r="E403" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:5">
       <c r="E404" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:5">
       <c r="E405" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:5">
       <c r="E406" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>1535</v>
       </c>
@@ -9843,7 +10111,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8">
       <c r="A438" s="1" t="s">
         <v>831</v>
       </c>
@@ -9860,7 +10128,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8">
       <c r="E439" t="s">
         <v>724</v>
       </c>
@@ -9874,7 +10142,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8">
       <c r="E440" t="s">
         <v>799</v>
       </c>
@@ -9888,7 +10156,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8">
       <c r="E441" t="s">
         <v>813</v>
       </c>
@@ -9902,7 +10170,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8">
       <c r="E442" t="s">
         <v>797</v>
       </c>
@@ -9916,7 +10184,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8">
       <c r="E443" t="s">
         <v>636</v>
       </c>
@@ -9930,7 +10198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8">
       <c r="E444" t="s">
         <v>820</v>
       </c>
@@ -9944,7 +10212,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8">
       <c r="E445" t="s">
         <v>822</v>
       </c>
@@ -9955,7 +10223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8">
       <c r="E446" t="s">
         <v>823</v>
       </c>
@@ -9966,7 +10234,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8">
       <c r="E447" t="s">
         <v>762</v>
       </c>
@@ -9977,7 +10245,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8">
       <c r="G448" t="s">
         <v>681</v>
       </c>
@@ -9985,7 +10253,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8">
       <c r="G449" t="s">
         <v>102</v>
       </c>
@@ -9993,7 +10261,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8">
       <c r="A451" s="3" t="s">
         <v>1536</v>
       </c>
@@ -10010,7 +10278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8">
       <c r="A452" s="3" t="s">
         <v>830</v>
       </c>
@@ -10021,7 +10289,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8">
       <c r="A453" s="1" t="s">
         <v>850</v>
       </c>
@@ -10032,7 +10300,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8">
       <c r="E454" t="s">
         <v>794</v>
       </c>
@@ -10040,7 +10308,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8">
       <c r="E455" t="s">
         <v>834</v>
       </c>
@@ -10048,7 +10316,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8">
       <c r="E456" t="s">
         <v>835</v>
       </c>
@@ -10056,7 +10324,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8">
       <c r="E457" t="s">
         <v>836</v>
       </c>
@@ -10064,7 +10332,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8">
       <c r="E458" t="s">
         <v>146</v>
       </c>
@@ -10072,13 +10340,13 @@
         <v>837</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8">
       <c r="A460" s="2"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8">
       <c r="A461" s="2"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6">
       <c r="A471" s="3" t="s">
         <v>1541</v>
       </c>
@@ -10095,7 +10363,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6">
       <c r="A472" s="3" t="s">
         <v>848</v>
       </c>
@@ -10106,7 +10374,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6">
       <c r="A473" s="1" t="s">
         <v>858</v>
       </c>
@@ -10117,7 +10385,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6">
       <c r="E474" t="s">
         <v>851</v>
       </c>
@@ -10125,7 +10393,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6">
       <c r="E475" t="s">
         <v>849</v>
       </c>
@@ -10133,7 +10401,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6">
       <c r="E476" t="s">
         <v>852</v>
       </c>
@@ -10141,7 +10409,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6">
       <c r="E477" t="s">
         <v>781</v>
       </c>
@@ -10149,17 +10417,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6">
       <c r="E478" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6">
       <c r="E479" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8">
       <c r="A481" s="3" t="s">
         <v>1542</v>
       </c>
@@ -10176,7 +10444,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8">
       <c r="A482" s="3" t="s">
         <v>855</v>
       </c>
@@ -10187,7 +10455,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8">
       <c r="A483" s="1" t="s">
         <v>951</v>
       </c>
@@ -10198,7 +10466,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8">
       <c r="E484" t="s">
         <v>859</v>
       </c>
@@ -10206,7 +10474,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8">
       <c r="E485" t="s">
         <v>617</v>
       </c>
@@ -10214,7 +10482,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8">
       <c r="E486" t="s">
         <v>643</v>
       </c>
@@ -10222,7 +10490,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8">
       <c r="E487" t="s">
         <v>861</v>
       </c>
@@ -10230,42 +10498,42 @@
         <v>662</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8">
       <c r="E488" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8">
       <c r="E489" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8">
       <c r="E490" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8">
       <c r="E491" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8">
       <c r="E492" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8">
       <c r="E493" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8">
       <c r="E494" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8">
       <c r="A496" s="2" t="s">
         <v>1543</v>
       </c>
@@ -10288,7 +10556,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8">
       <c r="A497" s="2"/>
       <c r="E497" t="s">
         <v>437</v>
@@ -10303,7 +10571,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8">
       <c r="E498" t="s">
         <v>870</v>
       </c>
@@ -10317,7 +10585,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8">
       <c r="E499" t="s">
         <v>873</v>
       </c>
@@ -10331,7 +10599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8">
       <c r="E500" t="s">
         <v>875</v>
       </c>
@@ -10345,7 +10613,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8">
       <c r="E501" t="s">
         <v>340</v>
       </c>
@@ -10359,7 +10627,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8">
       <c r="E502" t="s">
         <v>795</v>
       </c>
@@ -10373,7 +10641,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8">
       <c r="E503" t="s">
         <v>878</v>
       </c>
@@ -10387,7 +10655,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8">
       <c r="E504" t="s">
         <v>803</v>
       </c>
@@ -10401,7 +10669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8">
       <c r="E505" t="s">
         <v>792</v>
       </c>
@@ -10415,7 +10683,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8">
       <c r="E506" t="s">
         <v>321</v>
       </c>
@@ -10429,7 +10697,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8">
       <c r="E507" t="s">
         <v>329</v>
       </c>
@@ -10443,7 +10711,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8">
       <c r="E508" t="s">
         <v>724</v>
       </c>
@@ -10457,7 +10725,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8">
       <c r="E509" t="s">
         <v>543</v>
       </c>
@@ -10471,7 +10739,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8">
       <c r="E510" t="s">
         <v>889</v>
       </c>
@@ -10485,7 +10753,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8">
       <c r="E511" t="s">
         <v>733</v>
       </c>
@@ -10499,7 +10767,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8">
       <c r="E512" t="s">
         <v>781</v>
       </c>
@@ -10513,7 +10781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8">
       <c r="E513" t="s">
         <v>323</v>
       </c>
@@ -10524,7 +10792,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8">
       <c r="E514" t="s">
         <v>781</v>
       </c>
@@ -10532,7 +10800,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8">
       <c r="E515" t="s">
         <v>731</v>
       </c>
@@ -10540,7 +10808,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8">
       <c r="E516" t="s">
         <v>883</v>
       </c>
@@ -10548,7 +10816,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8">
       <c r="E517" t="s">
         <v>321</v>
       </c>
@@ -10556,7 +10824,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8">
       <c r="E518" t="s">
         <v>643</v>
       </c>
@@ -10564,12 +10832,12 @@
         <v>899</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8">
       <c r="E519" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>1545</v>
       </c>
@@ -10592,7 +10860,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8">
       <c r="E522" t="s">
         <v>904</v>
       </c>
@@ -10606,7 +10874,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8">
       <c r="E523" t="s">
         <v>908</v>
       </c>
@@ -10620,7 +10888,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8">
       <c r="E524" t="s">
         <v>912</v>
       </c>
@@ -10634,7 +10902,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8">
       <c r="E525" t="s">
         <v>915</v>
       </c>
@@ -10648,7 +10916,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8">
       <c r="E526" t="s">
         <v>919</v>
       </c>
@@ -10662,7 +10930,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8">
       <c r="E527" t="s">
         <v>923</v>
       </c>
@@ -10676,7 +10944,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8">
       <c r="E528" t="s">
         <v>927</v>
       </c>
@@ -10690,7 +10958,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8">
       <c r="E529" t="s">
         <v>66</v>
       </c>
@@ -10704,7 +10972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8">
       <c r="E530" t="s">
         <v>61</v>
       </c>
@@ -10718,7 +10986,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8">
       <c r="E531" t="s">
         <v>937</v>
       </c>
@@ -10732,7 +11000,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8">
       <c r="E532" t="s">
         <v>940</v>
       </c>
@@ -10746,7 +11014,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8">
       <c r="E533" t="s">
         <v>187</v>
       </c>
@@ -10757,22 +11025,22 @@
         <v>945</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8">
       <c r="H534" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8">
       <c r="H535" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8">
       <c r="H536">
         <v>219</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>1546</v>
       </c>
@@ -10795,7 +11063,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8">
       <c r="A539" s="1" t="s">
         <v>984</v>
       </c>
@@ -10812,7 +11080,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8">
       <c r="E540" t="s">
         <v>636</v>
       </c>
@@ -10826,7 +11094,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8">
       <c r="E541" t="s">
         <v>955</v>
       </c>
@@ -10840,7 +11108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8">
       <c r="E542" t="s">
         <v>539</v>
       </c>
@@ -10854,7 +11122,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8">
       <c r="E543" t="s">
         <v>419</v>
       </c>
@@ -10868,7 +11136,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8">
       <c r="E544" t="s">
         <v>374</v>
       </c>
@@ -10882,7 +11150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8">
       <c r="E545" t="s">
         <v>840</v>
       </c>
@@ -10896,7 +11164,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8">
       <c r="E546" t="s">
         <v>437</v>
       </c>
@@ -10910,7 +11178,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8">
       <c r="E547" t="s">
         <v>890</v>
       </c>
@@ -10924,7 +11192,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8">
       <c r="E548" t="s">
         <v>965</v>
       </c>
@@ -10938,7 +11206,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8">
       <c r="E549" t="s">
         <v>969</v>
       </c>
@@ -10952,7 +11220,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8">
       <c r="E550" t="s">
         <v>971</v>
       </c>
@@ -10966,7 +11234,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8">
       <c r="E551" t="s">
         <v>41</v>
       </c>
@@ -10980,7 +11248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8">
       <c r="E552" t="s">
         <v>601</v>
       </c>
@@ -10994,7 +11262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8">
       <c r="E553" t="s">
         <v>258</v>
       </c>
@@ -11002,12 +11270,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8">
       <c r="E554" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>1547</v>
       </c>
@@ -11030,7 +11298,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8">
       <c r="A557" s="2"/>
       <c r="E557" t="s">
         <v>129</v>
@@ -11045,7 +11313,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8">
       <c r="A558" s="1" t="s">
         <v>1104</v>
       </c>
@@ -11062,7 +11330,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8">
       <c r="E559" t="s">
         <v>987</v>
       </c>
@@ -11076,7 +11344,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8">
       <c r="E560" t="s">
         <v>263</v>
       </c>
@@ -11090,7 +11358,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8">
       <c r="E561" t="s">
         <v>994</v>
       </c>
@@ -11104,7 +11372,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8">
       <c r="E562" t="s">
         <v>998</v>
       </c>
@@ -11118,7 +11386,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8">
       <c r="E563" t="s">
         <v>228</v>
       </c>
@@ -11132,7 +11400,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8">
       <c r="E564" t="s">
         <v>1001</v>
       </c>
@@ -11146,7 +11414,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8">
       <c r="E565" t="s">
         <v>1005</v>
       </c>
@@ -11160,7 +11428,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8">
       <c r="E566" t="s">
         <v>1008</v>
       </c>
@@ -11174,7 +11442,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8">
       <c r="E567" t="s">
         <v>1008</v>
       </c>
@@ -11188,7 +11456,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8">
       <c r="E568" t="s">
         <v>27</v>
       </c>
@@ -11202,7 +11470,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8">
       <c r="E569" t="s">
         <v>1016</v>
       </c>
@@ -11210,7 +11478,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8">
       <c r="E570" t="s">
         <v>1016</v>
       </c>
@@ -11218,7 +11486,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8">
       <c r="E571" t="s">
         <v>1016</v>
       </c>
@@ -11226,7 +11494,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8">
       <c r="A573" t="s">
         <v>1548</v>
       </c>
@@ -11249,7 +11517,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8">
       <c r="A574" s="2"/>
       <c r="E574" t="s">
         <v>1023</v>
@@ -11264,7 +11532,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8">
       <c r="E575" t="s">
         <v>1024</v>
       </c>
@@ -11278,7 +11546,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8">
       <c r="E576" t="s">
         <v>1026</v>
       </c>
@@ -11292,7 +11560,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8">
       <c r="E577" t="s">
         <v>1029</v>
       </c>
@@ -11306,7 +11574,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8">
       <c r="E578" t="s">
         <v>450</v>
       </c>
@@ -11320,7 +11588,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8">
       <c r="E579" t="s">
         <v>1034</v>
       </c>
@@ -11328,7 +11596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8">
       <c r="E580" t="s">
         <v>1034</v>
       </c>
@@ -11336,7 +11604,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8">
       <c r="E581" t="s">
         <v>1036</v>
       </c>
@@ -11344,7 +11612,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8">
       <c r="A583" t="s">
         <v>1549</v>
       </c>
@@ -11367,7 +11635,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8">
       <c r="E584" t="s">
         <v>1042</v>
       </c>
@@ -11381,7 +11649,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8">
       <c r="E585" t="s">
         <v>671</v>
       </c>
@@ -11395,7 +11663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8">
       <c r="E586" t="s">
         <v>1046</v>
       </c>
@@ -11409,7 +11677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8">
       <c r="E587" t="s">
         <v>1042</v>
       </c>
@@ -11423,7 +11691,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8">
       <c r="E588" t="s">
         <v>1047</v>
       </c>
@@ -11437,7 +11705,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8">
       <c r="E589" t="s">
         <v>1050</v>
       </c>
@@ -11451,7 +11719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8">
       <c r="E590" t="s">
         <v>1051</v>
       </c>
@@ -11465,7 +11733,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8">
       <c r="E591" t="s">
         <v>653</v>
       </c>
@@ -11479,7 +11747,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8">
       <c r="E592" t="s">
         <v>152</v>
       </c>
@@ -11493,7 +11761,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8">
       <c r="E593" t="s">
         <v>1055</v>
       </c>
@@ -11507,7 +11775,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8">
       <c r="F594" t="s">
         <v>1058</v>
       </c>
@@ -11518,7 +11786,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8">
       <c r="F595" t="s">
         <v>792</v>
       </c>
@@ -11526,7 +11794,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8">
       <c r="F596" t="s">
         <v>870</v>
       </c>
@@ -11534,12 +11802,12 @@
         <v>751</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8">
       <c r="H597" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8">
       <c r="A599" t="s">
         <v>1550</v>
       </c>
@@ -11562,7 +11830,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8">
       <c r="E600" t="s">
         <v>601</v>
       </c>
@@ -11576,7 +11844,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8">
       <c r="E601" t="s">
         <v>931</v>
       </c>
@@ -11590,7 +11858,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8">
       <c r="E602" t="s">
         <v>1071</v>
       </c>
@@ -11604,7 +11872,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8">
       <c r="E603" t="s">
         <v>111</v>
       </c>
@@ -11618,7 +11886,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8">
       <c r="E604" t="s">
         <v>1077</v>
       </c>
@@ -11632,7 +11900,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8">
       <c r="E605" t="s">
         <v>1081</v>
       </c>
@@ -11646,7 +11914,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8">
       <c r="E606" t="s">
         <v>263</v>
       </c>
@@ -11660,7 +11928,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8">
       <c r="E607" t="s">
         <v>964</v>
       </c>
@@ -11674,7 +11942,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8">
       <c r="E608" t="s">
         <v>749</v>
       </c>
@@ -11688,7 +11956,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8">
       <c r="E609" t="s">
         <v>1089</v>
       </c>
@@ -11702,7 +11970,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8">
       <c r="E610" t="s">
         <v>1093</v>
       </c>
@@ -11716,7 +11984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8">
       <c r="E611" t="s">
         <v>1094</v>
       </c>
@@ -11730,7 +11998,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8">
       <c r="E612" t="s">
         <v>1072</v>
       </c>
@@ -11744,7 +12012,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8">
       <c r="E613" t="s">
         <v>23</v>
       </c>
@@ -11755,7 +12023,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8">
       <c r="E614">
         <v>127</v>
       </c>
@@ -11763,7 +12031,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8">
       <c r="A616" t="s">
         <v>1551</v>
       </c>
@@ -11780,7 +12048,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8">
       <c r="A617" s="2"/>
       <c r="E617" t="s">
         <v>477</v>
@@ -11789,7 +12057,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8">
       <c r="E618" t="s">
         <v>341</v>
       </c>
@@ -11797,7 +12065,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8">
       <c r="E619" t="s">
         <v>485</v>
       </c>
@@ -11805,7 +12073,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8">
       <c r="E620" t="s">
         <v>1108</v>
       </c>
@@ -11813,7 +12081,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8">
       <c r="E621" t="s">
         <v>330</v>
       </c>
@@ -11821,7 +12089,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8">
       <c r="E622" t="s">
         <v>844</v>
       </c>
@@ -11829,7 +12097,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8">
       <c r="E623" t="s">
         <v>481</v>
       </c>
@@ -11837,7 +12105,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8">
       <c r="E624" t="s">
         <v>1111</v>
       </c>
@@ -11845,7 +12113,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="625" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:6">
       <c r="E625" t="s">
         <v>485</v>
       </c>
@@ -11853,7 +12121,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="626" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:6">
       <c r="E626" t="s">
         <v>328</v>
       </c>
@@ -11861,7 +12129,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="627" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:6">
       <c r="E627" t="s">
         <v>316</v>
       </c>
@@ -11869,7 +12137,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="628" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:6">
       <c r="E628" t="s">
         <v>148</v>
       </c>
@@ -11877,7 +12145,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="629" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:6">
       <c r="E629" t="s">
         <v>1112</v>
       </c>
@@ -11885,7 +12153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="630" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:6">
       <c r="E630" t="s">
         <v>323</v>
       </c>
@@ -11893,7 +12161,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="631" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:6">
       <c r="E631" t="s">
         <v>573</v>
       </c>
@@ -11901,7 +12169,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="632" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:6">
       <c r="E632" t="s">
         <v>525</v>
       </c>
@@ -11909,7 +12177,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="633" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:6">
       <c r="E633" t="s">
         <v>497</v>
       </c>
@@ -11917,7 +12185,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="634" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:6">
       <c r="E634" t="s">
         <v>691</v>
       </c>
@@ -11925,7 +12193,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="635" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:6">
       <c r="E635" t="s">
         <v>1115</v>
       </c>
@@ -11933,7 +12201,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="636" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:6">
       <c r="E636" t="s">
         <v>1116</v>
       </c>
@@ -11941,7 +12209,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="637" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:6">
       <c r="E637" t="s">
         <v>887</v>
       </c>
@@ -11949,7 +12217,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="638" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:6">
       <c r="E638" t="s">
         <v>1117</v>
       </c>
@@ -11957,7 +12225,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="639" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:6">
       <c r="E639" t="s">
         <v>1119</v>
       </c>
@@ -11965,7 +12233,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="640" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:6">
       <c r="E640" t="s">
         <v>342</v>
       </c>
@@ -11973,12 +12241,12 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8">
       <c r="E641" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8">
       <c r="A643" t="s">
         <v>1552</v>
       </c>
@@ -12001,7 +12269,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8">
       <c r="E644" t="s">
         <v>1125</v>
       </c>
@@ -12015,7 +12283,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8">
       <c r="E645" t="s">
         <v>1129</v>
       </c>
@@ -12029,7 +12297,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8">
       <c r="E646" t="s">
         <v>334</v>
       </c>
@@ -12043,7 +12311,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8">
       <c r="E647" t="s">
         <v>788</v>
       </c>
@@ -12057,7 +12325,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8">
       <c r="E648" t="s">
         <v>456</v>
       </c>
@@ -12071,7 +12339,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8">
       <c r="E649" t="s">
         <v>1138</v>
       </c>
@@ -12085,7 +12353,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8">
       <c r="E650" t="s">
         <v>329</v>
       </c>
@@ -12099,7 +12367,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8">
       <c r="F651" t="s">
         <v>1144</v>
       </c>
@@ -12110,12 +12378,12 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8">
       <c r="H652" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8">
       <c r="A654" t="s">
         <v>1553</v>
       </c>
@@ -12138,7 +12406,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8">
       <c r="E655" t="s">
         <v>1151</v>
       </c>
@@ -12152,7 +12420,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8">
       <c r="E656" t="s">
         <v>289</v>
       </c>
@@ -12166,7 +12434,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8">
       <c r="E657" t="s">
         <v>1155</v>
       </c>
@@ -12180,7 +12448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8">
       <c r="E658" t="s">
         <v>401</v>
       </c>
@@ -12194,7 +12462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8">
       <c r="E659" t="s">
         <v>367</v>
       </c>
@@ -12208,7 +12476,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8">
       <c r="E660" t="s">
         <v>276</v>
       </c>
@@ -12222,7 +12490,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8">
       <c r="E661" t="s">
         <v>1160</v>
       </c>
@@ -12236,7 +12504,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8">
       <c r="E662" t="s">
         <v>1162</v>
       </c>
@@ -12250,7 +12518,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8">
       <c r="E663" t="s">
         <v>555</v>
       </c>
@@ -12264,7 +12532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8">
       <c r="E664" t="s">
         <v>843</v>
       </c>
@@ -12278,7 +12546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8">
       <c r="E665" t="s">
         <v>253</v>
       </c>
@@ -12292,7 +12560,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8">
       <c r="E666" t="s">
         <v>248</v>
       </c>
@@ -12306,7 +12574,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8">
       <c r="E667" t="s">
         <v>1168</v>
       </c>
@@ -12320,7 +12588,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8">
       <c r="E668" t="s">
         <v>253</v>
       </c>
@@ -12328,7 +12596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8">
       <c r="A670" t="s">
         <v>1554</v>
       </c>
@@ -12351,7 +12619,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8">
       <c r="A671" s="1" t="s">
         <v>1205</v>
       </c>
@@ -12368,7 +12636,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8">
       <c r="E672" t="s">
         <v>1178</v>
       </c>
@@ -12382,7 +12650,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8">
       <c r="E673" t="s">
         <v>1179</v>
       </c>
@@ -12396,7 +12664,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8">
       <c r="E674" t="s">
         <v>959</v>
       </c>
@@ -12410,7 +12678,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8">
       <c r="E675" t="s">
         <v>1182</v>
       </c>
@@ -12424,7 +12692,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8">
       <c r="E676" t="s">
         <v>1186</v>
       </c>
@@ -12438,7 +12706,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8">
       <c r="E677" t="s">
         <v>1188</v>
       </c>
@@ -12452,7 +12720,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8">
       <c r="E678" t="s">
         <v>1190</v>
       </c>
@@ -12466,7 +12734,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8">
       <c r="E679" t="s">
         <v>1194</v>
       </c>
@@ -12480,7 +12748,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8">
       <c r="E680" t="s">
         <v>788</v>
       </c>
@@ -12494,7 +12762,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8">
       <c r="E681" t="s">
         <v>1196</v>
       </c>
@@ -12505,7 +12773,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8">
       <c r="E682" t="s">
         <v>1199</v>
       </c>
@@ -12516,7 +12784,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8">
       <c r="E683" t="s">
         <v>137</v>
       </c>
@@ -12527,7 +12795,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8">
       <c r="G684" t="s">
         <v>107</v>
       </c>
@@ -12535,12 +12803,12 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8">
       <c r="A686" t="s">
         <v>1555</v>
       </c>
       <c r="B686" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C686" t="s">
         <v>1122</v>
@@ -12558,7 +12826,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8">
       <c r="A687" s="1" t="s">
         <v>1297</v>
       </c>
@@ -12575,7 +12843,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8">
       <c r="E688" t="s">
         <v>763</v>
       </c>
@@ -12589,7 +12857,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8">
       <c r="E689" t="s">
         <v>344</v>
       </c>
@@ -12603,7 +12871,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8">
       <c r="E690" t="s">
         <v>459</v>
       </c>
@@ -12617,7 +12885,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8">
       <c r="E691" t="s">
         <v>737</v>
       </c>
@@ -12631,7 +12899,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8">
       <c r="E692" t="s">
         <v>459</v>
       </c>
@@ -12645,7 +12913,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8">
       <c r="E693" t="s">
         <v>459</v>
       </c>
@@ -12659,7 +12927,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8">
       <c r="E694" t="s">
         <v>852</v>
       </c>
@@ -12673,7 +12941,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8">
       <c r="E695" t="s">
         <v>1227</v>
       </c>
@@ -12687,7 +12955,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8">
       <c r="E696" t="s">
         <v>707</v>
       </c>
@@ -12701,7 +12969,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8">
       <c r="E697" t="s">
         <v>683</v>
       </c>
@@ -12715,7 +12983,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8">
       <c r="E698" t="s">
         <v>802</v>
       </c>
@@ -12729,7 +12997,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8">
       <c r="E699" t="s">
         <v>1238</v>
       </c>
@@ -12743,7 +13011,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8">
       <c r="E700" t="s">
         <v>619</v>
       </c>
@@ -12757,17 +13025,17 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8">
       <c r="H701" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8">
       <c r="H702" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8">
       <c r="A704" t="s">
         <v>1556</v>
       </c>
@@ -12784,7 +13052,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8">
       <c r="A705" s="1" t="s">
         <v>1372</v>
       </c>
@@ -12795,7 +13063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8">
       <c r="E706" t="s">
         <v>787</v>
       </c>
@@ -12803,7 +13071,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8">
       <c r="E707" t="s">
         <v>149</v>
       </c>
@@ -12811,7 +13079,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8">
       <c r="E708" t="s">
         <v>698</v>
       </c>
@@ -12819,7 +13087,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8">
       <c r="E709" t="s">
         <v>736</v>
       </c>
@@ -12827,7 +13095,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8">
       <c r="E710" t="s">
         <v>1245</v>
       </c>
@@ -12835,7 +13103,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8">
       <c r="E711" t="s">
         <v>243</v>
       </c>
@@ -12843,27 +13111,27 @@
         <v>300</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8">
       <c r="E712" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8">
       <c r="E713" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8">
       <c r="E714" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8">
       <c r="E715" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8">
       <c r="A717" t="s">
         <v>1557</v>
       </c>
@@ -12886,7 +13154,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8">
       <c r="E718" t="s">
         <v>749</v>
       </c>
@@ -12900,7 +13168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8">
       <c r="E719" t="s">
         <v>467</v>
       </c>
@@ -12914,7 +13182,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8">
       <c r="E720" t="s">
         <v>1251</v>
       </c>
@@ -12928,7 +13196,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8">
       <c r="E721" t="s">
         <v>308</v>
       </c>
@@ -12942,7 +13210,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8">
       <c r="E722" t="s">
         <v>1255</v>
       </c>
@@ -12953,7 +13221,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8">
       <c r="G723" t="s">
         <v>1257</v>
       </c>
@@ -12961,22 +13229,22 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8">
       <c r="H724" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8">
       <c r="H725" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8">
       <c r="H726" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8">
       <c r="A728" t="s">
         <v>1691</v>
       </c>
@@ -12999,7 +13267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8">
       <c r="E729" t="s">
         <v>503</v>
       </c>
@@ -13013,7 +13281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8">
       <c r="E730" t="s">
         <v>160</v>
       </c>
@@ -13027,7 +13295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8">
       <c r="E731" t="s">
         <v>162</v>
       </c>
@@ -13041,7 +13309,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8">
       <c r="E732" t="s">
         <v>1265</v>
       </c>
@@ -13052,7 +13320,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8">
       <c r="G733" t="s">
         <v>633</v>
       </c>
@@ -13060,17 +13328,17 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8">
       <c r="G734" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8">
       <c r="G735" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8">
       <c r="A737" t="s">
         <v>1690</v>
       </c>
@@ -13093,7 +13361,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8">
       <c r="E738" t="s">
         <v>1271</v>
       </c>
@@ -13107,7 +13375,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8">
       <c r="E739" t="s">
         <v>1153</v>
       </c>
@@ -13121,7 +13389,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8">
       <c r="E740" t="s">
         <v>263</v>
       </c>
@@ -13135,7 +13403,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8">
       <c r="E741" t="s">
         <v>140</v>
       </c>
@@ -13149,7 +13417,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8">
       <c r="E742" t="s">
         <v>711</v>
       </c>
@@ -13160,7 +13428,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8">
       <c r="F743" t="s">
         <v>905</v>
       </c>
@@ -13168,7 +13436,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8">
       <c r="F744" t="s">
         <v>1282</v>
       </c>
@@ -13176,7 +13444,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8">
       <c r="F745" t="s">
         <v>1284</v>
       </c>
@@ -13184,7 +13452,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8">
       <c r="F746" t="s">
         <v>26</v>
       </c>
@@ -13192,7 +13460,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8">
       <c r="F747" t="s">
         <v>97</v>
       </c>
@@ -13200,7 +13468,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8">
       <c r="F748" t="s">
         <v>1288</v>
       </c>
@@ -13208,7 +13476,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8">
       <c r="F749" t="s">
         <v>754</v>
       </c>
@@ -13216,7 +13484,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8">
       <c r="F750" t="s">
         <v>1068</v>
       </c>
@@ -13224,7 +13492,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8">
       <c r="F751" t="s">
         <v>754</v>
       </c>
@@ -13232,22 +13500,22 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8">
       <c r="H752" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8">
       <c r="H753" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8">
       <c r="H754" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8">
       <c r="A756" t="s">
         <v>1689</v>
       </c>
@@ -13270,7 +13538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8">
       <c r="A757" s="1" t="s">
         <v>1391</v>
       </c>
@@ -13287,7 +13555,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8">
       <c r="E758" t="s">
         <v>1299</v>
       </c>
@@ -13301,7 +13569,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8">
       <c r="E759" t="s">
         <v>733</v>
       </c>
@@ -13315,7 +13583,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8">
       <c r="E760" t="s">
         <v>766</v>
       </c>
@@ -13329,7 +13597,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8">
       <c r="E761" t="s">
         <v>1245</v>
       </c>
@@ -13343,7 +13611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8">
       <c r="E762" t="s">
         <v>698</v>
       </c>
@@ -13357,27 +13625,27 @@
         <v>824</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8">
       <c r="G763" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8">
       <c r="G764" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8">
       <c r="G765" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8">
       <c r="G766" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8">
       <c r="A768" t="s">
         <v>1688</v>
       </c>
@@ -13400,7 +13668,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8">
       <c r="E769" t="s">
         <v>715</v>
       </c>
@@ -13414,7 +13682,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8">
       <c r="E770" t="s">
         <v>909</v>
       </c>
@@ -13428,7 +13696,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8">
       <c r="E771" t="s">
         <v>1247</v>
       </c>
@@ -13442,7 +13710,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8">
       <c r="E772" t="s">
         <v>1320</v>
       </c>
@@ -13456,7 +13724,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8">
       <c r="E773" t="s">
         <v>392</v>
       </c>
@@ -13470,7 +13738,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8">
       <c r="E774" t="s">
         <v>710</v>
       </c>
@@ -13484,7 +13752,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8">
       <c r="E775" t="s">
         <v>1329</v>
       </c>
@@ -13498,7 +13766,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8">
       <c r="E776" t="s">
         <v>100</v>
       </c>
@@ -13512,7 +13780,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8">
       <c r="E777" t="s">
         <v>1334</v>
       </c>
@@ -13523,12 +13791,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8">
       <c r="G778" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8">
       <c r="A780" t="s">
         <v>1687</v>
       </c>
@@ -13545,7 +13813,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8">
       <c r="A781" s="1" t="s">
         <v>1395</v>
       </c>
@@ -13556,7 +13824,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8">
       <c r="E782" t="s">
         <v>1341</v>
       </c>
@@ -13564,7 +13832,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8">
       <c r="E783" t="s">
         <v>1343</v>
       </c>
@@ -13572,7 +13840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8">
       <c r="E784" t="s">
         <v>1344</v>
       </c>
@@ -13580,7 +13848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="785" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:6">
       <c r="E785" t="s">
         <v>931</v>
       </c>
@@ -13588,7 +13856,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="786" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:6">
       <c r="E786" t="s">
         <v>1338</v>
       </c>
@@ -13596,7 +13864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="787" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:6">
       <c r="E787" t="s">
         <v>103</v>
       </c>
@@ -13604,7 +13872,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="788" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:6">
       <c r="E788" t="s">
         <v>128</v>
       </c>
@@ -13612,7 +13880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="789" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:6">
       <c r="E789" t="s">
         <v>1345</v>
       </c>
@@ -13620,7 +13888,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="790" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:6">
       <c r="E790" t="s">
         <v>1346</v>
       </c>
@@ -13628,7 +13896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="791" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:6">
       <c r="E791" t="s">
         <v>16</v>
       </c>
@@ -13636,7 +13904,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="792" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:6">
       <c r="E792" t="s">
         <v>263</v>
       </c>
@@ -13644,7 +13912,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="793" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:6">
       <c r="E793" t="s">
         <v>1349</v>
       </c>
@@ -13652,7 +13920,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="794" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:6">
       <c r="E794" t="s">
         <v>1351</v>
       </c>
@@ -13660,7 +13928,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="795" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:6">
       <c r="E795" t="s">
         <v>1184</v>
       </c>
@@ -13668,7 +13936,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="796" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:6">
       <c r="E796" t="s">
         <v>271</v>
       </c>
@@ -13676,7 +13944,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="797" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:6">
       <c r="E797" t="s">
         <v>1176</v>
       </c>
@@ -13684,7 +13952,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="798" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:6">
       <c r="E798" t="s">
         <v>1355</v>
       </c>
@@ -13692,7 +13960,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="799" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:6">
       <c r="E799" t="s">
         <v>1184</v>
       </c>
@@ -13700,7 +13968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="800" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:6">
       <c r="E800" t="s">
         <v>1356</v>
       </c>
@@ -13708,7 +13976,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="801" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:6">
       <c r="E801" t="s">
         <v>572</v>
       </c>
@@ -13716,7 +13984,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="802" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:6">
       <c r="E802" t="s">
         <v>1358</v>
       </c>
@@ -13724,7 +13992,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="803" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:6">
       <c r="E803" t="s">
         <v>905</v>
       </c>
@@ -13732,7 +14000,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="804" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:6">
       <c r="E804" t="s">
         <v>1360</v>
       </c>
@@ -13740,7 +14008,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="805" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:6">
       <c r="E805" t="s">
         <v>924</v>
       </c>
@@ -13748,7 +14016,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="806" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:6">
       <c r="E806" t="s">
         <v>1363</v>
       </c>
@@ -13756,7 +14024,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="807" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:6">
       <c r="E807" t="s">
         <v>128</v>
       </c>
@@ -13764,7 +14032,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="808" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:6">
       <c r="E808" t="s">
         <v>35</v>
       </c>
@@ -13772,7 +14040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="809" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:6">
       <c r="E809" t="s">
         <v>42</v>
       </c>
@@ -13780,7 +14048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="810" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:6">
       <c r="E810" t="s">
         <v>1365</v>
       </c>
@@ -13788,7 +14056,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="811" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:6">
       <c r="E811" t="s">
         <v>1078</v>
       </c>
@@ -13796,7 +14064,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="812" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:6">
       <c r="E812" t="s">
         <v>1368</v>
       </c>
@@ -13804,7 +14072,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="813" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:6">
       <c r="E813" t="s">
         <v>965</v>
       </c>
@@ -13812,7 +14080,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="814" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:6">
       <c r="E814" t="s">
         <v>1189</v>
       </c>
@@ -13820,7 +14088,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="815" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:6">
       <c r="E815" t="s">
         <v>1370</v>
       </c>
@@ -13828,17 +14096,17 @@
         <v>987</v>
       </c>
     </row>
-    <row r="816" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:6">
       <c r="E816" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8">
       <c r="E817" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8">
       <c r="A819" t="s">
         <v>1686</v>
       </c>
@@ -13861,7 +14129,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8">
       <c r="A820" s="1" t="s">
         <v>1537</v>
       </c>
@@ -13878,7 +14146,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8">
       <c r="E821" t="s">
         <v>1375</v>
       </c>
@@ -13892,7 +14160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8">
       <c r="E822" t="s">
         <v>243</v>
       </c>
@@ -13906,7 +14174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8">
       <c r="E823" t="s">
         <v>735</v>
       </c>
@@ -13920,7 +14188,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8">
       <c r="E824" t="s">
         <v>1378</v>
       </c>
@@ -13934,7 +14202,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8">
       <c r="E825" t="s">
         <v>1220</v>
       </c>
@@ -13948,7 +14216,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8">
       <c r="E826" t="s">
         <v>715</v>
       </c>
@@ -13962,7 +14230,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8">
       <c r="E827" t="s">
         <v>822</v>
       </c>
@@ -13976,7 +14244,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8">
       <c r="E828" t="s">
         <v>1307</v>
       </c>
@@ -13990,7 +14258,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8">
       <c r="E829" t="s">
         <v>1384</v>
       </c>
@@ -14004,7 +14272,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:8">
       <c r="E830" t="s">
         <v>700</v>
       </c>
@@ -14018,7 +14286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8">
       <c r="E831" t="s">
         <v>695</v>
       </c>
@@ -14032,7 +14300,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8">
       <c r="E832" t="s">
         <v>600</v>
       </c>
@@ -14040,7 +14308,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8">
       <c r="A834" t="s">
         <v>1685</v>
       </c>
@@ -14057,7 +14325,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8">
       <c r="A835" s="1" t="s">
         <v>1426</v>
       </c>
@@ -14068,7 +14336,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8">
       <c r="E836" t="s">
         <v>387</v>
       </c>
@@ -14076,7 +14344,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8">
       <c r="E837" t="s">
         <v>1392</v>
       </c>
@@ -14084,32 +14352,32 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8">
       <c r="E838" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8">
       <c r="E839" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8">
       <c r="E840" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8">
       <c r="E841" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8">
       <c r="E842" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8">
       <c r="A844" t="s">
         <v>1684</v>
       </c>
@@ -14125,8 +14393,9 @@
       <c r="F844" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H844" s="10"/>
+    </row>
+    <row r="845" spans="1:8">
       <c r="A845" s="1" t="s">
         <v>1538</v>
       </c>
@@ -14137,7 +14406,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8">
       <c r="E846" t="s">
         <v>1393</v>
       </c>
@@ -14145,7 +14414,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8">
       <c r="E847" t="s">
         <v>540</v>
       </c>
@@ -14153,7 +14422,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8">
       <c r="E848" t="s">
         <v>1397</v>
       </c>
@@ -14161,7 +14430,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:14">
       <c r="E849" t="s">
         <v>731</v>
       </c>
@@ -14169,7 +14438,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:14">
       <c r="E850" t="s">
         <v>437</v>
       </c>
@@ -14177,7 +14446,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:14">
       <c r="E851" t="s">
         <v>1399</v>
       </c>
@@ -14185,7 +14454,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:14">
       <c r="E852" t="s">
         <v>884</v>
       </c>
@@ -14193,12 +14462,12 @@
         <v>894</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:14">
       <c r="E853" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:14">
       <c r="A855" t="s">
         <v>1683</v>
       </c>
@@ -14220,8 +14489,9 @@
       <c r="H855" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N855" s="10"/>
+    </row>
+    <row r="856" spans="1:14">
       <c r="A856" s="1" t="s">
         <v>1539</v>
       </c>
@@ -14238,7 +14508,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:14">
       <c r="E857" t="s">
         <v>1262</v>
       </c>
@@ -14252,7 +14522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:14">
       <c r="E858" t="s">
         <v>296</v>
       </c>
@@ -14266,7 +14536,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:14">
       <c r="E859" t="s">
         <v>324</v>
       </c>
@@ -14280,7 +14550,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:14">
       <c r="E860" t="s">
         <v>314</v>
       </c>
@@ -14294,7 +14564,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:14">
       <c r="E861" t="s">
         <v>1411</v>
       </c>
@@ -14308,7 +14578,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:14">
       <c r="E862" t="s">
         <v>725</v>
       </c>
@@ -14322,7 +14592,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:14">
       <c r="E863" t="s">
         <v>780</v>
       </c>
@@ -14335,8 +14605,9 @@
       <c r="H863" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N863" s="10"/>
+    </row>
+    <row r="864" spans="1:14">
       <c r="E864" t="s">
         <v>1416</v>
       </c>
@@ -14350,7 +14621,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:14">
       <c r="E865" t="s">
         <v>863</v>
       </c>
@@ -14364,7 +14635,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:14">
       <c r="F866" t="s">
         <v>852</v>
       </c>
@@ -14375,7 +14646,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:14">
       <c r="F867" t="s">
         <v>1420</v>
       </c>
@@ -14386,7 +14657,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:14">
       <c r="F868" t="s">
         <v>1208</v>
       </c>
@@ -14394,7 +14665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:14">
       <c r="F869" t="s">
         <v>1422</v>
       </c>
@@ -14402,7 +14673,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:14">
       <c r="F870" t="s">
         <v>781</v>
       </c>
@@ -14410,7 +14681,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:14">
       <c r="F871" t="s">
         <v>1424</v>
       </c>
@@ -14418,17 +14689,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:14">
       <c r="H872" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:14">
       <c r="H873" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:14">
       <c r="A875" t="s">
         <v>1682</v>
       </c>
@@ -14450,8 +14721,10 @@
       <c r="H875" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J875" s="10"/>
+      <c r="N875" s="10"/>
+    </row>
+    <row r="876" spans="1:14">
       <c r="E876" t="s">
         <v>840</v>
       </c>
@@ -14465,7 +14738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:14">
       <c r="E877" t="s">
         <v>1105</v>
       </c>
@@ -14476,7 +14749,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:14">
       <c r="E878" t="s">
         <v>336</v>
       </c>
@@ -14487,7 +14760,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:14">
       <c r="E879" t="s">
         <v>1103</v>
       </c>
@@ -14495,32 +14768,32 @@
         <v>549</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:14">
       <c r="G880" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:14">
       <c r="G881" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:14">
       <c r="G882" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:14">
       <c r="G883" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:14">
       <c r="G884" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:14">
       <c r="A886" t="s">
         <v>1681</v>
       </c>
@@ -14542,8 +14815,10 @@
       <c r="H886" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J886" s="10"/>
+      <c r="N886" s="10"/>
+    </row>
+    <row r="887" spans="1:14">
       <c r="E887" t="s">
         <v>1230</v>
       </c>
@@ -14557,7 +14832,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:14">
       <c r="E888" t="s">
         <v>532</v>
       </c>
@@ -14571,7 +14846,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:14">
       <c r="E889" t="s">
         <v>1441</v>
       </c>
@@ -14585,7 +14860,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:14">
       <c r="E890" t="s">
         <v>1442</v>
       </c>
@@ -14599,7 +14874,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:14">
       <c r="E891" t="s">
         <v>1443</v>
       </c>
@@ -14613,7 +14888,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:14">
       <c r="E892" t="s">
         <v>1445</v>
       </c>
@@ -14627,7 +14902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:14">
       <c r="E893" t="s">
         <v>878</v>
       </c>
@@ -14641,7 +14916,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:14">
       <c r="E894" t="s">
         <v>1446</v>
       </c>
@@ -14652,7 +14927,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:14">
       <c r="E895" t="s">
         <v>477</v>
       </c>
@@ -14660,7 +14935,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:14">
       <c r="E896" t="s">
         <v>770</v>
       </c>
@@ -14668,7 +14943,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:14">
       <c r="E897" t="s">
         <v>477</v>
       </c>
@@ -14676,20 +14951,25 @@
         <v>751</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:14">
       <c r="E898" t="s">
         <v>387</v>
       </c>
       <c r="G898" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K898" s="8"/>
+    </row>
+    <row r="899" spans="1:14">
       <c r="G899" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K899" s="8"/>
+    </row>
+    <row r="900" spans="1:14">
+      <c r="K900" s="8"/>
+    </row>
+    <row r="901" spans="1:14">
       <c r="A901" t="s">
         <v>1680</v>
       </c>
@@ -14711,8 +14991,10 @@
       <c r="H901" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J901" s="10"/>
+      <c r="N901" s="10"/>
+    </row>
+    <row r="902" spans="1:14">
       <c r="E902" t="s">
         <v>1460</v>
       </c>
@@ -14726,7 +15008,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:14">
       <c r="E903" t="s">
         <v>722</v>
       </c>
@@ -14740,7 +15022,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:14">
       <c r="E904" t="s">
         <v>1461</v>
       </c>
@@ -14753,8 +15035,9 @@
       <c r="H904" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K904" s="2"/>
+    </row>
+    <row r="905" spans="1:14">
       <c r="E905" t="s">
         <v>680</v>
       </c>
@@ -14768,7 +15051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:14">
       <c r="E906" t="s">
         <v>961</v>
       </c>
@@ -14782,7 +15065,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:14">
       <c r="E907" t="s">
         <v>1462</v>
       </c>
@@ -14796,7 +15079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:14">
       <c r="E908" t="s">
         <v>1183</v>
       </c>
@@ -14810,7 +15093,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:14">
       <c r="E909" t="s">
         <v>121</v>
       </c>
@@ -14824,7 +15107,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:14">
       <c r="E910" t="s">
         <v>1169</v>
       </c>
@@ -14838,7 +15121,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:14">
       <c r="E911" t="s">
         <v>37</v>
       </c>
@@ -14852,7 +15135,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:14">
       <c r="F912" t="s">
         <v>1466</v>
       </c>
@@ -14860,7 +15143,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18">
       <c r="F913" t="s">
         <v>141</v>
       </c>
@@ -14868,28 +15151,70 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18">
       <c r="F914" t="s">
         <v>1467</v>
       </c>
       <c r="H914" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I914" s="2"/>
+      <c r="J914" s="2"/>
+      <c r="K914" s="2"/>
+      <c r="L914" s="2"/>
+      <c r="M914" s="2"/>
+      <c r="N914" s="2"/>
+      <c r="O914" s="2"/>
+      <c r="P914" s="2"/>
+      <c r="Q914" s="2"/>
+      <c r="R914" s="2"/>
+    </row>
+    <row r="915" spans="1:18">
       <c r="F915" t="s">
         <v>1034</v>
       </c>
       <c r="H915" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I915" s="2"/>
+      <c r="J915" s="2"/>
+      <c r="K915" s="2"/>
+      <c r="L915" s="2"/>
+      <c r="M915" s="2"/>
+      <c r="N915" s="2"/>
+      <c r="O915" s="2"/>
+      <c r="P915" s="2"/>
+      <c r="Q915" s="2"/>
+      <c r="R915" s="2"/>
+    </row>
+    <row r="916" spans="1:18">
       <c r="H916" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I916" s="2"/>
+      <c r="J916" s="2"/>
+      <c r="K916" s="2"/>
+      <c r="L916" s="2"/>
+      <c r="M916" s="2"/>
+      <c r="N916" s="2"/>
+      <c r="O916" s="2"/>
+      <c r="P916" s="2"/>
+      <c r="Q916" s="2"/>
+      <c r="R916" s="2"/>
+    </row>
+    <row r="917" spans="1:18">
+      <c r="I917" s="2"/>
+      <c r="J917" s="2"/>
+      <c r="K917" s="2"/>
+      <c r="L917" s="2"/>
+      <c r="M917" s="2"/>
+      <c r="N917" s="2"/>
+      <c r="O917" s="2"/>
+      <c r="P917" s="2"/>
+      <c r="Q917" s="2"/>
+      <c r="R917" s="2"/>
+    </row>
+    <row r="918" spans="1:18">
       <c r="A918" t="s">
         <v>1679</v>
       </c>
@@ -14911,8 +15236,18 @@
       <c r="H918" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I918" s="2"/>
+      <c r="J918" s="11"/>
+      <c r="K918" s="2"/>
+      <c r="L918" s="2"/>
+      <c r="M918" s="2"/>
+      <c r="N918" s="11"/>
+      <c r="O918" s="2"/>
+      <c r="P918" s="2"/>
+      <c r="Q918" s="2"/>
+      <c r="R918" s="2"/>
+    </row>
+    <row r="919" spans="1:18">
       <c r="E919" t="s">
         <v>1479</v>
       </c>
@@ -14925,8 +15260,18 @@
       <c r="H919" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I919" s="2"/>
+      <c r="J919" s="2"/>
+      <c r="K919" s="2"/>
+      <c r="L919" s="2"/>
+      <c r="M919" s="2"/>
+      <c r="N919" s="2"/>
+      <c r="O919" s="2"/>
+      <c r="P919" s="2"/>
+      <c r="Q919" s="2"/>
+      <c r="R919" s="2"/>
+    </row>
+    <row r="920" spans="1:18">
       <c r="E920" t="s">
         <v>847</v>
       </c>
@@ -14939,8 +15284,18 @@
       <c r="H920" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I920" s="2"/>
+      <c r="J920" s="2"/>
+      <c r="K920" s="2"/>
+      <c r="L920" s="2"/>
+      <c r="M920" s="2"/>
+      <c r="N920" s="2"/>
+      <c r="O920" s="2"/>
+      <c r="P920" s="2"/>
+      <c r="Q920" s="2"/>
+      <c r="R920" s="2"/>
+    </row>
+    <row r="921" spans="1:18">
       <c r="E921" t="s">
         <v>326</v>
       </c>
@@ -14953,8 +15308,18 @@
       <c r="H921" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I921" s="2"/>
+      <c r="J921" s="2"/>
+      <c r="K921" s="2"/>
+      <c r="L921" s="2"/>
+      <c r="M921" s="2"/>
+      <c r="N921" s="2"/>
+      <c r="O921" s="2"/>
+      <c r="P921" s="2"/>
+      <c r="Q921" s="2"/>
+      <c r="R921" s="2"/>
+    </row>
+    <row r="922" spans="1:18">
       <c r="E922" t="s">
         <v>1251</v>
       </c>
@@ -14967,8 +15332,18 @@
       <c r="H922" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I922" s="2"/>
+      <c r="J922" s="2"/>
+      <c r="K922" s="2"/>
+      <c r="L922" s="2"/>
+      <c r="M922" s="2"/>
+      <c r="N922" s="2"/>
+      <c r="O922" s="2"/>
+      <c r="P922" s="2"/>
+      <c r="Q922" s="2"/>
+      <c r="R922" s="2"/>
+    </row>
+    <row r="923" spans="1:18">
       <c r="E923" t="s">
         <v>799</v>
       </c>
@@ -14981,8 +15356,18 @@
       <c r="H923" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I923" s="2"/>
+      <c r="J923" s="2"/>
+      <c r="K923" s="2"/>
+      <c r="L923" s="2"/>
+      <c r="M923" s="2"/>
+      <c r="N923" s="2"/>
+      <c r="O923" s="2"/>
+      <c r="P923" s="2"/>
+      <c r="Q923" s="2"/>
+      <c r="R923" s="2"/>
+    </row>
+    <row r="924" spans="1:18">
       <c r="E924" t="s">
         <v>300</v>
       </c>
@@ -14995,8 +15380,18 @@
       <c r="H924" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I924" s="2"/>
+      <c r="J924" s="2"/>
+      <c r="K924" s="2"/>
+      <c r="L924" s="2"/>
+      <c r="M924" s="2"/>
+      <c r="N924" s="2"/>
+      <c r="O924" s="2"/>
+      <c r="P924" s="2"/>
+      <c r="Q924" s="2"/>
+      <c r="R924" s="2"/>
+    </row>
+    <row r="925" spans="1:18">
       <c r="E925" t="s">
         <v>149</v>
       </c>
@@ -15009,8 +15404,18 @@
       <c r="H925" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I925" s="2"/>
+      <c r="J925" s="2"/>
+      <c r="K925" s="2"/>
+      <c r="L925" s="2"/>
+      <c r="M925" s="2"/>
+      <c r="N925" s="2"/>
+      <c r="O925" s="2"/>
+      <c r="P925" s="2"/>
+      <c r="Q925" s="2"/>
+      <c r="R925" s="2"/>
+    </row>
+    <row r="926" spans="1:18">
       <c r="E926" t="s">
         <v>1484</v>
       </c>
@@ -15024,7 +15429,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18">
       <c r="E927" t="s">
         <v>437</v>
       </c>
@@ -15038,7 +15443,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18">
       <c r="E928" t="s">
         <v>146</v>
       </c>
@@ -15052,7 +15457,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:17">
       <c r="E929" t="s">
         <v>1262</v>
       </c>
@@ -15066,7 +15471,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:17">
       <c r="E930" t="s">
         <v>1125</v>
       </c>
@@ -15080,7 +15485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:17">
       <c r="E931" t="s">
         <v>1486</v>
       </c>
@@ -15093,8 +15498,17 @@
       <c r="H931" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I931" s="2"/>
+      <c r="J931" s="2"/>
+      <c r="K931" s="2"/>
+      <c r="L931" s="2"/>
+      <c r="M931" s="2"/>
+      <c r="N931" s="2"/>
+      <c r="O931" s="2"/>
+      <c r="P931" s="2"/>
+      <c r="Q931" s="2"/>
+    </row>
+    <row r="932" spans="1:17">
       <c r="E932" t="s">
         <v>752</v>
       </c>
@@ -15107,8 +15521,17 @@
       <c r="H932" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I932" s="2"/>
+      <c r="J932" s="2"/>
+      <c r="K932" s="2"/>
+      <c r="L932" s="2"/>
+      <c r="M932" s="2"/>
+      <c r="N932" s="2"/>
+      <c r="O932" s="2"/>
+      <c r="P932" s="2"/>
+      <c r="Q932" s="2"/>
+    </row>
+    <row r="933" spans="1:17">
       <c r="E933" t="s">
         <v>1446</v>
       </c>
@@ -15121,8 +15544,17 @@
       <c r="H933" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I933" s="2"/>
+      <c r="J933" s="2"/>
+      <c r="K933" s="2"/>
+      <c r="L933" s="2"/>
+      <c r="M933" s="2"/>
+      <c r="N933" s="2"/>
+      <c r="O933" s="2"/>
+      <c r="P933" s="2"/>
+      <c r="Q933" s="2"/>
+    </row>
+    <row r="934" spans="1:17">
       <c r="E934" t="s">
         <v>1489</v>
       </c>
@@ -15135,16 +15567,45 @@
       <c r="H934" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I934" s="2"/>
+      <c r="J934" s="2"/>
+      <c r="K934" s="2"/>
+      <c r="L934" s="2"/>
+      <c r="M934" s="2"/>
+      <c r="N934" s="2"/>
+      <c r="O934" s="2"/>
+      <c r="P934" s="2"/>
+      <c r="Q934" s="2"/>
+    </row>
+    <row r="935" spans="1:17">
       <c r="E935" t="s">
         <v>1490</v>
       </c>
       <c r="F935" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I935" s="2"/>
+      <c r="J935" s="2"/>
+      <c r="K935" s="2"/>
+      <c r="L935" s="2"/>
+      <c r="M935" s="2"/>
+      <c r="N935" s="2"/>
+      <c r="O935" s="2"/>
+      <c r="P935" s="2"/>
+      <c r="Q935" s="2"/>
+    </row>
+    <row r="936" spans="1:17">
+      <c r="I936" s="2"/>
+      <c r="J936" s="2"/>
+      <c r="K936" s="2"/>
+      <c r="L936" s="2"/>
+      <c r="M936" s="2"/>
+      <c r="N936" s="2"/>
+      <c r="O936" s="2"/>
+      <c r="P936" s="2"/>
+      <c r="Q936" s="2"/>
+    </row>
+    <row r="937" spans="1:17">
       <c r="A937" t="s">
         <v>1544</v>
       </c>
@@ -15166,8 +15627,17 @@
       <c r="H937" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I937" s="2"/>
+      <c r="J937" s="11"/>
+      <c r="K937" s="11"/>
+      <c r="L937" s="2"/>
+      <c r="M937" s="2"/>
+      <c r="N937" s="2"/>
+      <c r="O937" s="2"/>
+      <c r="P937" s="2"/>
+      <c r="Q937" s="2"/>
+    </row>
+    <row r="938" spans="1:17">
       <c r="E938" t="s">
         <v>894</v>
       </c>
@@ -15180,8 +15650,17 @@
       <c r="H938" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I938" s="2"/>
+      <c r="J938" s="2"/>
+      <c r="K938" s="2"/>
+      <c r="L938" s="2"/>
+      <c r="M938" s="2"/>
+      <c r="N938" s="2"/>
+      <c r="O938" s="2"/>
+      <c r="P938" s="2"/>
+      <c r="Q938" s="2"/>
+    </row>
+    <row r="939" spans="1:17">
       <c r="E939" t="s">
         <v>1507</v>
       </c>
@@ -15194,8 +15673,17 @@
       <c r="H939" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I939" s="2"/>
+      <c r="J939" s="2"/>
+      <c r="K939" s="12"/>
+      <c r="L939" s="2"/>
+      <c r="M939" s="2"/>
+      <c r="N939" s="2"/>
+      <c r="O939" s="2"/>
+      <c r="P939" s="2"/>
+      <c r="Q939" s="2"/>
+    </row>
+    <row r="940" spans="1:17">
       <c r="E940" t="s">
         <v>1461</v>
       </c>
@@ -15208,8 +15696,17 @@
       <c r="H940" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I940" s="2"/>
+      <c r="J940" s="2"/>
+      <c r="K940" s="2"/>
+      <c r="L940" s="2"/>
+      <c r="M940" s="2"/>
+      <c r="N940" s="2"/>
+      <c r="O940" s="2"/>
+      <c r="P940" s="2"/>
+      <c r="Q940" s="2"/>
+    </row>
+    <row r="941" spans="1:17">
       <c r="E941" t="s">
         <v>759</v>
       </c>
@@ -15222,8 +15719,17 @@
       <c r="H941" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I941" s="2"/>
+      <c r="J941" s="2"/>
+      <c r="K941" s="2"/>
+      <c r="L941" s="2"/>
+      <c r="M941" s="2"/>
+      <c r="N941" s="2"/>
+      <c r="O941" s="2"/>
+      <c r="P941" s="2"/>
+      <c r="Q941" s="2"/>
+    </row>
+    <row r="942" spans="1:17">
       <c r="E942" t="s">
         <v>1214</v>
       </c>
@@ -15236,8 +15742,17 @@
       <c r="H942" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I942" s="2"/>
+      <c r="J942" s="2"/>
+      <c r="K942" s="2"/>
+      <c r="L942" s="2"/>
+      <c r="M942" s="2"/>
+      <c r="N942" s="2"/>
+      <c r="O942" s="2"/>
+      <c r="P942" s="2"/>
+      <c r="Q942" s="2"/>
+    </row>
+    <row r="943" spans="1:17">
       <c r="E943" t="s">
         <v>457</v>
       </c>
@@ -15250,8 +15765,17 @@
       <c r="H943" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I943" s="2"/>
+      <c r="J943" s="2"/>
+      <c r="K943" s="2"/>
+      <c r="L943" s="2"/>
+      <c r="M943" s="2"/>
+      <c r="N943" s="2"/>
+      <c r="O943" s="2"/>
+      <c r="P943" s="2"/>
+      <c r="Q943" s="2"/>
+    </row>
+    <row r="944" spans="1:17">
       <c r="E944" t="s">
         <v>793</v>
       </c>
@@ -15261,8 +15785,17 @@
       <c r="H944" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I944" s="2"/>
+      <c r="J944" s="2"/>
+      <c r="K944" s="2"/>
+      <c r="L944" s="2"/>
+      <c r="M944" s="2"/>
+      <c r="N944" s="2"/>
+      <c r="O944" s="2"/>
+      <c r="P944" s="2"/>
+      <c r="Q944" s="2"/>
+    </row>
+    <row r="946" spans="1:17">
       <c r="A946" t="s">
         <v>1560</v>
       </c>
@@ -15284,8 +15817,10 @@
       <c r="H946" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J946" s="10"/>
+      <c r="K946" s="10"/>
+    </row>
+    <row r="947" spans="1:17">
       <c r="A947" s="1" t="s">
         <v>1558</v>
       </c>
@@ -15302,7 +15837,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:17">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="E948" t="s">
@@ -15317,8 +15852,9 @@
       <c r="H948" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q948" s="2"/>
+    </row>
+    <row r="949" spans="1:17">
       <c r="B949" s="2"/>
       <c r="E949" t="s">
         <v>145</v>
@@ -15333,7 +15869,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:17">
       <c r="E950" t="s">
         <v>533</v>
       </c>
@@ -15347,7 +15883,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:17">
       <c r="E951" t="s">
         <v>842</v>
       </c>
@@ -15360,8 +15896,9 @@
       <c r="H951" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N951" s="2"/>
+    </row>
+    <row r="952" spans="1:17">
       <c r="E952" t="s">
         <v>837</v>
       </c>
@@ -15374,8 +15911,11 @@
       <c r="H952" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J952" s="8"/>
+      <c r="L952" s="2"/>
+      <c r="N952" s="2"/>
+    </row>
+    <row r="953" spans="1:17">
       <c r="E953" t="s">
         <v>497</v>
       </c>
@@ -15385,8 +15925,14 @@
       <c r="H953" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I953" s="2"/>
+      <c r="J953" s="8"/>
+      <c r="L953" s="2"/>
+      <c r="N953" s="2"/>
+      <c r="P953" s="2"/>
+      <c r="Q953" s="2"/>
+    </row>
+    <row r="954" spans="1:17">
       <c r="E954" t="s">
         <v>836</v>
       </c>
@@ -15396,37 +15942,71 @@
       <c r="H954" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I954" s="2"/>
+      <c r="J954" s="2"/>
+      <c r="L954" s="2"/>
+      <c r="N954" s="2"/>
+      <c r="P954" s="2"/>
+      <c r="Q954" s="8"/>
+    </row>
+    <row r="955" spans="1:17">
       <c r="F955" t="s">
         <v>160</v>
       </c>
       <c r="H955" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I955" s="2"/>
+      <c r="L955" s="2"/>
+      <c r="N955" s="2"/>
+      <c r="P955" s="2"/>
+      <c r="Q955" s="8"/>
+    </row>
+    <row r="956" spans="1:17">
       <c r="F956" t="s">
         <v>450</v>
       </c>
       <c r="H956" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I956" s="2"/>
+      <c r="L956" s="2"/>
+      <c r="N956" s="2"/>
+      <c r="P956" s="2"/>
+      <c r="Q956" s="8"/>
+    </row>
+    <row r="957" spans="1:17">
       <c r="F957" t="s">
         <v>1398</v>
       </c>
       <c r="H957" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I957" s="2"/>
+      <c r="J957" s="2"/>
+      <c r="L957" s="2"/>
+      <c r="N957" s="2"/>
+      <c r="P957" s="2"/>
+      <c r="Q957" s="2"/>
+    </row>
+    <row r="958" spans="1:17">
       <c r="H958" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L958" s="2"/>
+      <c r="M958" s="2"/>
+      <c r="N958" s="2"/>
+      <c r="P958" s="2"/>
+      <c r="Q958" s="8"/>
+    </row>
+    <row r="959" spans="1:17">
+      <c r="L959" s="2"/>
+      <c r="M959" s="2"/>
+      <c r="N959" s="2"/>
+      <c r="P959" s="2"/>
+      <c r="Q959" s="2"/>
+    </row>
+    <row r="960" spans="1:17">
       <c r="A960" t="s">
         <v>1582</v>
       </c>
@@ -15448,10 +16028,16 @@
       <c r="H960" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J960" s="10"/>
+      <c r="K960" s="10"/>
+      <c r="L960" s="2"/>
+      <c r="N960" s="2"/>
+      <c r="P960" s="2"/>
+      <c r="Q960" s="8"/>
+    </row>
+    <row r="961" spans="1:17">
       <c r="A961" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E961" t="s">
         <v>1384</v>
@@ -15465,8 +16051,12 @@
       <c r="H961" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L961" s="2"/>
+      <c r="N961" s="2"/>
+      <c r="P961" s="2"/>
+      <c r="Q961" s="2"/>
+    </row>
+    <row r="962" spans="1:17">
       <c r="E962" t="s">
         <v>1585</v>
       </c>
@@ -15479,8 +16069,12 @@
       <c r="H962" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L962" s="2"/>
+      <c r="N962" s="2"/>
+      <c r="P962" s="2"/>
+      <c r="Q962" s="2"/>
+    </row>
+    <row r="963" spans="1:17">
       <c r="E963" t="s">
         <v>1417</v>
       </c>
@@ -15493,8 +16087,13 @@
       <c r="H963" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L963" s="2"/>
+      <c r="M963" s="2"/>
+      <c r="N963" s="2"/>
+      <c r="P963" s="2"/>
+      <c r="Q963" s="2"/>
+    </row>
+    <row r="964" spans="1:17">
       <c r="E964" t="s">
         <v>526</v>
       </c>
@@ -15507,8 +16106,13 @@
       <c r="H964" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L964" s="2"/>
+      <c r="M964" s="2"/>
+      <c r="N964" s="2"/>
+      <c r="P964" s="2"/>
+      <c r="Q964" s="2"/>
+    </row>
+    <row r="965" spans="1:17">
       <c r="E965" t="s">
         <v>1586</v>
       </c>
@@ -15521,8 +16125,12 @@
       <c r="H965" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L965" s="2"/>
+      <c r="M965" s="2"/>
+      <c r="N965" s="2"/>
+      <c r="P965" s="2"/>
+    </row>
+    <row r="966" spans="1:17">
       <c r="F966" t="s">
         <v>531</v>
       </c>
@@ -15532,26 +16140,39 @@
       <c r="H966" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M966" s="8"/>
+      <c r="P966" s="2"/>
+      <c r="Q966" s="2"/>
+    </row>
+    <row r="967" spans="1:17">
       <c r="F967" t="s">
         <v>1587</v>
       </c>
       <c r="H967" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M967" s="8"/>
+      <c r="P967" s="2"/>
+      <c r="Q967" s="2"/>
+    </row>
+    <row r="968" spans="1:17">
       <c r="H968" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M968" s="2"/>
+      <c r="P968" s="2"/>
+      <c r="Q968" s="8"/>
+    </row>
+    <row r="969" spans="1:17">
       <c r="H969" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="P969" s="2"/>
+    </row>
+    <row r="970" spans="1:17">
+      <c r="P970" s="2"/>
+    </row>
+    <row r="971" spans="1:17">
       <c r="A971" t="s">
         <v>1595</v>
       </c>
@@ -15573,8 +16194,13 @@
       <c r="H971" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J971" s="10"/>
+      <c r="K971" s="10"/>
+      <c r="L971" s="10"/>
+      <c r="M971" s="10"/>
+      <c r="P971" s="2"/>
+    </row>
+    <row r="972" spans="1:17">
       <c r="A972" s="1" t="s">
         <v>1602</v>
       </c>
@@ -15584,29 +16210,44 @@
       <c r="F972" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="P972" s="2"/>
+      <c r="Q972" s="8"/>
+    </row>
+    <row r="973" spans="1:17">
       <c r="E973" t="s">
         <v>1597</v>
       </c>
       <c r="F973" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="P973" s="2"/>
+      <c r="Q973" s="8"/>
+    </row>
+    <row r="974" spans="1:17">
       <c r="E974" t="s">
         <v>1599</v>
       </c>
       <c r="F974" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M974" s="2"/>
+      <c r="P974" s="2"/>
+      <c r="Q974" s="8"/>
+    </row>
+    <row r="975" spans="1:17">
       <c r="F975" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M975" s="2"/>
+      <c r="P975" s="2"/>
+      <c r="Q975" s="8"/>
+    </row>
+    <row r="976" spans="1:17">
+      <c r="M976" s="2"/>
+      <c r="P976" s="2"/>
+      <c r="Q976" s="2"/>
+    </row>
+    <row r="977" spans="1:15">
       <c r="A977" t="s">
         <v>1600</v>
       </c>
@@ -15628,8 +16269,14 @@
       <c r="H977" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J977" s="10"/>
+      <c r="K977" s="10"/>
+      <c r="L977" s="10"/>
+      <c r="M977" s="10"/>
+      <c r="N977" s="10"/>
+      <c r="O977" s="10"/>
+    </row>
+    <row r="978" spans="1:15">
       <c r="A978" s="1" t="s">
         <v>1640</v>
       </c>
@@ -15646,7 +16293,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15">
       <c r="E979" t="s">
         <v>1153</v>
       </c>
@@ -15660,7 +16307,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15">
       <c r="E980" t="s">
         <v>1606</v>
       </c>
@@ -15674,7 +16321,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15">
       <c r="E981" t="s">
         <v>1608</v>
       </c>
@@ -15688,7 +16335,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15">
       <c r="E982" t="s">
         <v>129</v>
       </c>
@@ -15702,7 +16349,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15">
       <c r="E983" t="s">
         <v>1078</v>
       </c>
@@ -15716,7 +16363,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15">
       <c r="E984" t="s">
         <v>1612</v>
       </c>
@@ -15730,7 +16377,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15">
       <c r="E985" t="s">
         <v>457</v>
       </c>
@@ -15744,7 +16391,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15">
       <c r="E986" t="s">
         <v>537</v>
       </c>
@@ -15758,7 +16405,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15">
       <c r="E987" t="s">
         <v>537</v>
       </c>
@@ -15772,7 +16419,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15">
       <c r="E988" t="s">
         <v>793</v>
       </c>
@@ -15786,7 +16433,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15">
       <c r="E989" t="s">
         <v>344</v>
       </c>
@@ -15800,7 +16447,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15">
       <c r="E990" t="s">
         <v>1621</v>
       </c>
@@ -15814,7 +16461,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15">
       <c r="E991" t="s">
         <v>704</v>
       </c>
@@ -15828,7 +16475,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15">
       <c r="E992" t="s">
         <v>304</v>
       </c>
@@ -15842,7 +16489,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15">
       <c r="E993" t="s">
         <v>304</v>
       </c>
@@ -15856,7 +16503,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15">
       <c r="E994" t="s">
         <v>475</v>
       </c>
@@ -15867,7 +16514,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15">
       <c r="E995" t="s">
         <v>612</v>
       </c>
@@ -15878,7 +16525,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15">
       <c r="A997" t="s">
         <v>1639</v>
       </c>
@@ -15900,8 +16547,14 @@
       <c r="H997" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J997" s="10"/>
+      <c r="K997" s="10"/>
+      <c r="L997" s="10"/>
+      <c r="M997" s="10"/>
+      <c r="N997" s="10"/>
+      <c r="O997" s="10"/>
+    </row>
+    <row r="998" spans="1:15">
       <c r="A998" s="1" t="s">
         <v>1651</v>
       </c>
@@ -15918,7 +16571,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15">
       <c r="E999" t="s">
         <v>512</v>
       </c>
@@ -15932,7 +16585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15">
       <c r="E1000" t="s">
         <v>1563</v>
       </c>
@@ -15946,7 +16599,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15">
       <c r="E1001" t="s">
         <v>1645</v>
       </c>
@@ -15960,7 +16613,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15">
       <c r="E1002" t="s">
         <v>853</v>
       </c>
@@ -15974,7 +16627,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15">
       <c r="E1003" t="s">
         <v>842</v>
       </c>
@@ -15988,7 +16641,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15">
       <c r="E1004" t="s">
         <v>509</v>
       </c>
@@ -16002,12 +16655,12 @@
         <v>960</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15">
       <c r="G1005" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15">
       <c r="A1007" t="s">
         <v>1649</v>
       </c>
@@ -16029,10 +16682,16 @@
       <c r="H1007" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1007" s="10"/>
+      <c r="K1007" s="10"/>
+      <c r="L1007" s="10"/>
+      <c r="M1007" s="10"/>
+      <c r="N1007" s="10"/>
+      <c r="O1007" s="10"/>
+    </row>
+    <row r="1008" spans="1:15">
       <c r="A1008" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E1008" t="s">
         <v>752</v>
@@ -16047,7 +16706,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15">
       <c r="E1009" t="s">
         <v>1654</v>
       </c>
@@ -16061,7 +16720,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15">
       <c r="E1010" t="s">
         <v>1652</v>
       </c>
@@ -16075,7 +16734,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15">
       <c r="E1011" t="s">
         <v>762</v>
       </c>
@@ -16089,7 +16748,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15">
       <c r="E1012" t="s">
         <v>145</v>
       </c>
@@ -16103,7 +16762,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15">
       <c r="F1013" t="s">
         <v>801</v>
       </c>
@@ -16114,7 +16773,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15">
       <c r="F1014" t="s">
         <v>823</v>
       </c>
@@ -16125,7 +16784,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15">
       <c r="F1015" t="s">
         <v>752</v>
       </c>
@@ -16133,14 +16792,14 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15">
       <c r="H1016" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15">
       <c r="A1018" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1018" t="s">
         <v>1663</v>
@@ -16160,8 +16819,14 @@
       <c r="H1018" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1018" s="10"/>
+      <c r="K1018" s="10"/>
+      <c r="L1018" s="10"/>
+      <c r="M1018" s="10"/>
+      <c r="N1018" s="10"/>
+      <c r="O1018" s="10"/>
+    </row>
+    <row r="1019" spans="1:15">
       <c r="E1019" t="s">
         <v>1671</v>
       </c>
@@ -16175,7 +16840,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15">
       <c r="E1020" t="s">
         <v>1672</v>
       </c>
@@ -16189,7 +16854,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15">
       <c r="E1021" t="s">
         <v>883</v>
       </c>
@@ -16203,7 +16868,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15">
       <c r="E1022" t="s">
         <v>531</v>
       </c>
@@ -16217,7 +16882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15">
       <c r="E1023">
         <v>100</v>
       </c>
@@ -16231,7 +16896,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15">
       <c r="E1024" t="s">
         <v>1669</v>
       </c>
@@ -16245,7 +16910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15">
       <c r="E1025" t="s">
         <v>1446</v>
       </c>
@@ -16253,9 +16918,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="1027" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15">
       <c r="A1027" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1027" s="8" t="s">
         <v>1665</v>
@@ -16269,8 +16934,14 @@
       <c r="F1027" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1027" s="10"/>
+      <c r="K1027" s="10"/>
+      <c r="L1027" s="10"/>
+      <c r="M1027" s="10"/>
+      <c r="N1027" s="10"/>
+      <c r="O1027" s="10"/>
+    </row>
+    <row r="1028" spans="1:15">
       <c r="E1028" t="s">
         <v>351</v>
       </c>
@@ -16278,7 +16949,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="1029" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15">
       <c r="E1029" t="s">
         <v>1113</v>
       </c>
@@ -16286,7 +16957,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15">
       <c r="E1030" t="s">
         <v>130</v>
       </c>
@@ -16294,24 +16965,24 @@
         <v>488</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15">
       <c r="E1031" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="1032" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15">
       <c r="E1032" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15">
       <c r="E1033" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="1035" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15">
       <c r="A1035" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1035" t="s">
         <v>1666</v>
@@ -16326,13 +16997,19 @@
         <v>427</v>
       </c>
       <c r="G1035" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H1035" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1035" s="10"/>
+      <c r="K1035" s="10"/>
+      <c r="L1035" s="10"/>
+      <c r="M1035" s="10"/>
+      <c r="N1035" s="10"/>
+      <c r="O1035" s="10"/>
+    </row>
+    <row r="1036" spans="1:15">
       <c r="E1036" t="s">
         <v>1692</v>
       </c>
@@ -16340,13 +17017,13 @@
         <v>228</v>
       </c>
       <c r="G1036" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H1036" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:15">
       <c r="E1037" t="s">
         <v>1693</v>
       </c>
@@ -16354,41 +17031,41 @@
         <v>969</v>
       </c>
       <c r="G1037" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H1037" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:15">
       <c r="E1038" t="s">
         <v>15</v>
       </c>
       <c r="F1038" t="s">
-        <v>1695</v>
+        <v>1761</v>
       </c>
       <c r="G1038" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H1038" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:15">
       <c r="E1039" t="s">
         <v>1365</v>
       </c>
       <c r="F1039" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G1039" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H1039" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15">
       <c r="E1040" t="s">
         <v>1694</v>
       </c>
@@ -16402,22 +17079,22 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15">
       <c r="E1041" t="s">
         <v>715</v>
       </c>
       <c r="G1041" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:15">
       <c r="E1042" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15">
       <c r="A1044" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1044" t="s">
         <v>1667</v>
@@ -16431,24 +17108,30 @@
       <c r="F1044" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1044" s="10"/>
+      <c r="K1044" s="10"/>
+      <c r="L1044" s="10"/>
+      <c r="M1044" s="10"/>
+      <c r="N1044" s="10"/>
+      <c r="O1044" s="10"/>
+    </row>
+    <row r="1045" spans="1:15">
       <c r="E1045" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1045" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15">
       <c r="E1046" t="s">
         <v>335</v>
       </c>
       <c r="F1046" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:15">
       <c r="E1047" t="s">
         <v>1105</v>
       </c>
@@ -16456,7 +17139,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15">
       <c r="E1048" t="s">
         <v>1644</v>
       </c>
@@ -16464,7 +17147,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15">
       <c r="E1049" t="s">
         <v>844</v>
       </c>
@@ -16472,7 +17155,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15">
       <c r="E1050" t="s">
         <v>1339</v>
       </c>
@@ -16480,25 +17163,25 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15">
       <c r="E1051" t="s">
         <v>347</v>
       </c>
       <c r="F1051" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:15">
       <c r="E1052" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15">
       <c r="A1054" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B1054" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E1054">
         <v>72</v>
@@ -16512,10 +17195,16 @@
       <c r="H1054" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1054" s="10"/>
+      <c r="K1054" s="10"/>
+      <c r="L1054" s="10"/>
+      <c r="M1054" s="10"/>
+      <c r="N1054" s="10"/>
+      <c r="O1054" s="10"/>
+    </row>
+    <row r="1055" spans="1:15">
       <c r="A1055" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G1055">
         <v>117</v>
@@ -16524,7 +17213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15">
       <c r="G1056">
         <v>121</v>
       </c>
@@ -16532,12 +17221,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:15">
       <c r="A1067" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1067" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E1067" t="s">
         <v>873</v>
@@ -16546,30 +17235,36 @@
         <v>248</v>
       </c>
       <c r="G1067" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H1067" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1067" s="10"/>
+      <c r="K1067" s="10"/>
+      <c r="L1067" s="10"/>
+      <c r="M1067" s="10"/>
+      <c r="N1067" s="10"/>
+      <c r="O1067" s="10"/>
+    </row>
+    <row r="1068" spans="1:15">
       <c r="A1068" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E1068" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F1068" t="s">
         <v>1723</v>
       </c>
-      <c r="F1068" t="s">
-        <v>1724</v>
-      </c>
       <c r="G1068" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H1068" t="s">
         <v>1733</v>
       </c>
-      <c r="H1068" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1069" spans="1:15">
       <c r="E1069" t="s">
         <v>1220</v>
       </c>
@@ -16580,15 +17275,15 @@
         <v>1499</v>
       </c>
       <c r="H1069" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:15">
       <c r="E1070" t="s">
         <v>524</v>
       </c>
       <c r="F1070" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G1070" t="s">
         <v>1197</v>
@@ -16597,9 +17292,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15">
       <c r="E1071" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F1071" t="s">
         <v>479</v>
@@ -16611,7 +17306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15">
       <c r="E1072" t="s">
         <v>1183</v>
       </c>
@@ -16622,10 +17317,10 @@
         <v>1403</v>
       </c>
       <c r="H1072" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13">
       <c r="E1073" t="s">
         <v>762</v>
       </c>
@@ -16639,22 +17334,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1074" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:13">
       <c r="A1074" s="2"/>
       <c r="E1074" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F1074" t="s">
         <v>1727</v>
-      </c>
-      <c r="F1074" t="s">
-        <v>1728</v>
       </c>
       <c r="G1074" t="s">
         <v>1185</v>
       </c>
       <c r="H1074" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13">
       <c r="A1075" s="2"/>
       <c r="F1075" t="s">
         <v>599</v>
@@ -16663,18 +17358,18 @@
         <v>412</v>
       </c>
       <c r="H1075" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13">
       <c r="F1076" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H1076" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:13">
       <c r="F1077" t="s">
         <v>467</v>
       </c>
@@ -16682,54 +17377,54 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:13">
       <c r="F1078" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H1078" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:13">
       <c r="F1079" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H1079" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13">
       <c r="F1080" t="s">
         <v>1489</v>
       </c>
       <c r="H1080" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13">
       <c r="F1081" t="s">
         <v>1397</v>
       </c>
       <c r="H1081" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13">
       <c r="H1082" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:13">
       <c r="H1083" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:13">
       <c r="A1085" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1085" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E1085" t="s">
         <v>466</v>
@@ -16737,10 +17432,16 @@
       <c r="F1085" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="1086" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1085" s="10"/>
+      <c r="I1085" s="10"/>
+      <c r="J1085" s="10"/>
+      <c r="K1085" s="10"/>
+      <c r="L1085" s="10"/>
+      <c r="M1085" s="10"/>
+    </row>
+    <row r="1086" spans="1:13">
       <c r="A1086" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E1086" t="s">
         <v>1153</v>
@@ -16749,7 +17450,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:13">
       <c r="E1087" t="s">
         <v>339</v>
       </c>
@@ -16757,7 +17458,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="1088" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:13">
       <c r="E1088" t="s">
         <v>525</v>
       </c>
@@ -16765,31 +17466,31 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1089" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1089" spans="5:6">
       <c r="E1089" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F1089" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="1090" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1090" spans="5:6">
       <c r="E1090" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F1090" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1091" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1091" spans="5:6">
       <c r="E1091" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F1091" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="1092" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1092" spans="5:6">
       <c r="E1092" t="s">
         <v>559</v>
       </c>
@@ -16797,15 +17498,15 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="1093" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1093" spans="5:6">
       <c r="E1093" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F1093" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1094" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1094" spans="5:6">
       <c r="E1094" t="s">
         <v>1352</v>
       </c>
@@ -16813,7 +17514,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="1095" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1095" spans="5:6">
       <c r="E1095" t="s">
         <v>130</v>
       </c>
@@ -16821,7 +17522,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="1096" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1096" spans="5:6">
       <c r="E1096" t="s">
         <v>1195</v>
       </c>
@@ -16829,39 +17530,39 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="1097" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1097" spans="5:6">
       <c r="E1097" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F1097" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1098" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1098" spans="5:6">
       <c r="E1098" t="s">
         <v>156</v>
       </c>
       <c r="F1098" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1099" spans="5:6">
+      <c r="E1099" t="s">
         <v>1749</v>
-      </c>
-    </row>
-    <row r="1099" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1099" t="s">
-        <v>1750</v>
       </c>
       <c r="F1099" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1100" spans="5:6">
       <c r="E1100" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F1100" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="1101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1101" spans="5:6">
       <c r="E1101" t="s">
         <v>890</v>
       </c>
@@ -16869,7 +17570,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1102" spans="5:6">
       <c r="E1102" t="s">
         <v>344</v>
       </c>
@@ -16877,58 +17578,66 @@
         <v>724</v>
       </c>
     </row>
-    <row r="1103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1103" spans="5:6">
       <c r="F1103" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1104" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1104" spans="5:6">
       <c r="F1104" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:16">
       <c r="A1106" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1755</v>
       </c>
-      <c r="B1106" t="s">
-        <v>1756</v>
-      </c>
       <c r="E1106" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F1106" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1106" s="10"/>
+      <c r="J1106" s="10"/>
+      <c r="K1106" s="10"/>
+      <c r="L1106" s="10"/>
+      <c r="M1106" s="10"/>
+      <c r="N1106" s="10"/>
+      <c r="O1106" s="10"/>
+      <c r="P1106" s="10"/>
+    </row>
+    <row r="1107" spans="1:16">
       <c r="A1107" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E1107" t="s">
         <v>1194</v>
       </c>
       <c r="F1107" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:16">
       <c r="E1108" t="s">
         <v>108</v>
       </c>
       <c r="F1108" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:16">
       <c r="E1109" t="s">
         <v>473</v>
       </c>
       <c r="F1109" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:16">
       <c r="E1110" t="s">
         <v>767</v>
       </c>
@@ -16936,7 +17645,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:16">
       <c r="E1111" t="s">
         <v>879</v>
       </c>
@@ -16944,48 +17653,83 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:16">
       <c r="E1112" t="s">
         <v>711</v>
       </c>
       <c r="F1112" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:16">
       <c r="E1113" t="s">
         <v>529</v>
       </c>
       <c r="F1113" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:16">
       <c r="E1114" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="1115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:16">
       <c r="E1115" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:16">
       <c r="E1116" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:16">
       <c r="E1117" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:16">
       <c r="E1118">
         <v>92</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
